--- a/your_data.xlsx
+++ b/your_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180" tabRatio="723"/>
+    <workbookView windowWidth="25600" windowHeight="12080" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="activator代码化-补充比例-删小-加固液气" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="32">
   <si>
     <t>Pretreatment</t>
   </si>
@@ -1348,17 +1348,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J708"/>
+  <dimension ref="A1:J705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="A275" sqref="$A275:$XFD275"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="A445" sqref="$A445:$XFD447"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="8.88888888888889" style="1"/>
-    <col min="8" max="8" width="12.8888888888889" style="1"/>
-    <col min="9" max="10" width="11.7777777777778" style="1"/>
+    <col min="1" max="7" width="8.89090909090909" style="1"/>
+    <col min="8" max="8" width="12.8909090909091" style="1"/>
+    <col min="9" max="10" width="11.7818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1654,7 +1654,7 @@
         <v>152.0077</v>
       </c>
     </row>
-    <row r="11" ht="17.4" spans="1:10">
+    <row r="11" ht="16.5" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>243.34297</v>
       </c>
     </row>
-    <row r="12" ht="17.4" spans="1:10">
+    <row r="12" ht="16.5" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>126.86385</v>
       </c>
     </row>
-    <row r="13" ht="17.4" spans="1:10">
+    <row r="13" ht="16.5" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>159.63762</v>
       </c>
     </row>
-    <row r="14" ht="17.4" spans="1:10">
+    <row r="14" ht="16.5" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>206.49925</v>
       </c>
     </row>
-    <row r="15" ht="17.4" spans="1:10">
+    <row r="15" ht="16.5" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>195.89638</v>
       </c>
     </row>
-    <row r="16" ht="17.4" spans="1:10">
+    <row r="16" ht="16.5" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>270.9015</v>
       </c>
     </row>
-    <row r="17" ht="17.4" spans="1:10">
+    <row r="17" ht="16.5" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>336.72348</v>
       </c>
     </row>
-    <row r="18" ht="17.4" spans="1:10">
+    <row r="18" ht="16.5" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>354.2364</v>
       </c>
     </row>
-    <row r="19" ht="17.4" spans="1:10">
+    <row r="19" ht="16.5" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>165.14192</v>
       </c>
     </row>
-    <row r="20" ht="17.4" spans="1:10">
+    <row r="20" ht="16.5" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>151.01482</v>
       </c>
     </row>
-    <row r="21" ht="17.4" spans="1:10">
+    <row r="21" ht="16.5" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>147.99316</v>
       </c>
     </row>
-    <row r="22" ht="17.4" spans="1:10">
+    <row r="22" ht="16.5" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>205.04684</v>
       </c>
     </row>
-    <row r="23" ht="17.4" spans="1:10">
+    <row r="23" ht="16.5" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>238.96123</v>
       </c>
     </row>
-    <row r="24" ht="17.4" spans="1:10">
+    <row r="24" ht="16.5" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>128.95868</v>
       </c>
     </row>
-    <row r="25" ht="17.4" spans="1:10">
+    <row r="25" ht="16.5" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>338.93423</v>
       </c>
     </row>
-    <row r="26" ht="17.4" spans="1:10">
+    <row r="26" ht="16.5" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>378.41458</v>
       </c>
     </row>
-    <row r="27" ht="17.4" spans="1:10">
+    <row r="27" ht="16.5" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>500.61545</v>
       </c>
     </row>
-    <row r="28" ht="17.4" spans="1:10">
+    <row r="28" ht="16.5" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>495.3701</v>
       </c>
     </row>
-    <row r="29" ht="17.4" spans="1:10">
+    <row r="29" ht="16.5" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>653.92523</v>
       </c>
     </row>
-    <row r="30" ht="17.4" spans="1:10">
+    <row r="30" ht="16.5" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>542.2267</v>
       </c>
     </row>
-    <row r="31" ht="17.4" spans="1:10">
+    <row r="31" ht="16.5" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>668.7929</v>
       </c>
     </row>
-    <row r="32" ht="17.4" spans="1:10">
+    <row r="32" ht="16.5" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>525.493</v>
       </c>
     </row>
-    <row r="33" ht="17.4" spans="1:10">
+    <row r="33" ht="16.5" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>446.49442</v>
       </c>
     </row>
-    <row r="34" ht="17.4" spans="1:10">
+    <row r="34" ht="16.5" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>328.7437</v>
       </c>
     </row>
-    <row r="35" ht="17.4" spans="1:10">
+    <row r="35" ht="16.5" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>472.3154</v>
       </c>
     </row>
-    <row r="36" ht="17.4" spans="1:10">
+    <row r="36" ht="16.5" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>430.73715</v>
       </c>
     </row>
-    <row r="37" ht="17.4" spans="1:10">
+    <row r="37" ht="16.5" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>567.48645</v>
       </c>
     </row>
-    <row r="38" ht="17.4" spans="1:10">
+    <row r="38" ht="16.5" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>474.4794</v>
       </c>
     </row>
-    <row r="39" ht="17.4" spans="1:10">
+    <row r="39" ht="16.5" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>799.9871</v>
       </c>
     </row>
-    <row r="40" ht="17.4" spans="1:10">
+    <row r="40" ht="16.5" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>646.48474</v>
       </c>
     </row>
-    <row r="41" ht="17.4" spans="1:10">
+    <row r="41" ht="16.5" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>549.7091</v>
       </c>
     </row>
-    <row r="42" ht="17.4" spans="1:10">
+    <row r="42" ht="16.5" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>520.00934</v>
       </c>
     </row>
-    <row r="43" ht="17.4" spans="1:10">
+    <row r="43" ht="16.5" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>164.59854</v>
       </c>
     </row>
-    <row r="44" ht="17.4" spans="1:10">
+    <row r="44" ht="16.5" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>206.98009</v>
       </c>
     </row>
-    <row r="45" ht="17.4" spans="1:10">
+    <row r="45" ht="16.5" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>369.70648</v>
       </c>
     </row>
-    <row r="46" ht="17.4" spans="1:10">
+    <row r="46" ht="16.5" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>716.4097</v>
       </c>
     </row>
-    <row r="47" ht="17.4" spans="1:10">
+    <row r="47" ht="16.5" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>244.72148</v>
       </c>
     </row>
-    <row r="48" ht="17.4" spans="1:10">
+    <row r="48" ht="16.5" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>339.32608</v>
       </c>
     </row>
-    <row r="49" ht="17.4" spans="1:10">
+    <row r="49" ht="16.5" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>402.31198</v>
       </c>
     </row>
-    <row r="50" ht="17.4" spans="1:10">
+    <row r="50" ht="16.5" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>798.3088</v>
       </c>
     </row>
-    <row r="51" ht="17.4" spans="1:10">
+    <row r="51" ht="16.5" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>118.42105</v>
       </c>
     </row>
-    <row r="52" ht="17.4" spans="1:10">
+    <row r="52" ht="16.5" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>202.71696</v>
       </c>
     </row>
-    <row r="53" ht="17.4" spans="1:10">
+    <row r="53" ht="16.5" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>199.79019</v>
       </c>
     </row>
-    <row r="54" ht="17.4" spans="1:10">
+    <row r="54" ht="16.5" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>339.28653</v>
       </c>
     </row>
-    <row r="55" ht="17.4" spans="1:10">
+    <row r="55" ht="16.5" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>177.78674</v>
       </c>
     </row>
-    <row r="56" ht="17.4" spans="1:10">
+    <row r="56" ht="16.5" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>164.0371</v>
       </c>
     </row>
-    <row r="57" ht="17.4" spans="1:10">
+    <row r="57" ht="16.5" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>791.252</v>
       </c>
     </row>
-    <row r="58" ht="17.4" spans="1:10">
+    <row r="58" ht="16.5" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>152.18355</v>
       </c>
     </row>
-    <row r="59" ht="17.4" spans="1:10">
+    <row r="59" ht="16.5" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>280.26398</v>
       </c>
     </row>
-    <row r="60" ht="17.4" spans="1:10">
+    <row r="60" ht="16.5" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>382.50592</v>
       </c>
     </row>
-    <row r="61" ht="17.4" spans="1:10">
+    <row r="61" ht="16.5" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>14</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>357.15237</v>
       </c>
     </row>
-    <row r="62" ht="17.4" spans="1:10">
+    <row r="62" ht="16.5" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>412.98184</v>
       </c>
     </row>
-    <row r="63" ht="17.4" spans="1:10">
+    <row r="63" ht="16.5" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>415.3314</v>
       </c>
     </row>
-    <row r="64" ht="17.4" spans="1:10">
+    <row r="64" ht="16.5" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>370.56964</v>
       </c>
     </row>
-    <row r="65" ht="17.4" spans="1:10">
+    <row r="65" ht="16.5" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>439.96985</v>
       </c>
     </row>
-    <row r="66" ht="17.4" spans="1:10">
+    <row r="66" ht="16.5" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>293.19333</v>
       </c>
     </row>
-    <row r="67" ht="17.4" spans="1:10">
+    <row r="67" ht="16.5" spans="1:10">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>377.2031</v>
       </c>
     </row>
-    <row r="68" ht="17.4" spans="1:10">
+    <row r="68" ht="16.5" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>266.3988</v>
       </c>
     </row>
-    <row r="69" ht="17.4" spans="1:10">
+    <row r="69" ht="16.5" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>335.65536</v>
       </c>
     </row>
-    <row r="70" ht="17.4" spans="1:10">
+    <row r="70" ht="16.5" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>470.9081</v>
       </c>
     </row>
-    <row r="71" ht="17.4" spans="1:10">
+    <row r="71" ht="16.5" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>14</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>83.291725</v>
       </c>
     </row>
-    <row r="72" ht="17.4" spans="1:10">
+    <row r="72" ht="16.5" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>83.33145</v>
       </c>
     </row>
-    <row r="73" ht="17.4" spans="1:10">
+    <row r="73" ht="16.5" spans="1:10">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>459.63852</v>
       </c>
     </row>
-    <row r="74" ht="17.4" spans="1:10">
+    <row r="74" ht="16.5" spans="1:10">
       <c r="A74" s="1" t="s">
         <v>14</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>88.44977</v>
       </c>
     </row>
-    <row r="75" ht="17.4" spans="1:10">
+    <row r="75" ht="16.5" spans="1:10">
       <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>65.84927</v>
       </c>
     </row>
-    <row r="76" ht="17.4" spans="1:10">
+    <row r="76" ht="16.5" spans="1:10">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>84.879745</v>
       </c>
     </row>
-    <row r="77" ht="17.4" spans="1:10">
+    <row r="77" ht="16.5" spans="1:10">
       <c r="A77" s="1" t="s">
         <v>14</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>83.967316</v>
       </c>
     </row>
-    <row r="78" ht="17.4" spans="1:10">
+    <row r="78" ht="16.5" spans="1:10">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>112.0462</v>
       </c>
     </row>
-    <row r="422" ht="17.4" spans="1:10">
+    <row r="422" ht="16.5" spans="1:10">
       <c r="A422" s="1" t="s">
         <v>10</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>153.89314</v>
       </c>
     </row>
-    <row r="423" ht="17.4" spans="1:10">
+    <row r="423" ht="16.5" spans="1:10">
       <c r="A423" s="1" t="s">
         <v>10</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>181.62247</v>
       </c>
     </row>
-    <row r="424" ht="17.4" spans="1:10">
+    <row r="424" ht="16.5" spans="1:10">
       <c r="A424" s="1" t="s">
         <v>10</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>358.03806</v>
       </c>
     </row>
-    <row r="425" ht="17.4" spans="1:10">
+    <row r="425" ht="16.5" spans="1:10">
       <c r="A425" s="1" t="s">
         <v>10</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>388.46854</v>
       </c>
     </row>
-    <row r="426" ht="17.4" spans="1:10">
+    <row r="426" ht="16.5" spans="1:10">
       <c r="A426" s="1" t="s">
         <v>10</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>369.71692</v>
       </c>
     </row>
-    <row r="427" ht="17.4" spans="1:10">
+    <row r="427" ht="16.5" spans="1:10">
       <c r="A427" s="1" t="s">
         <v>10</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>545.0786</v>
       </c>
     </row>
-    <row r="428" ht="17.4" spans="1:10">
+    <row r="428" ht="16.5" spans="1:10">
       <c r="A428" s="1" t="s">
         <v>10</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>40.134716</v>
       </c>
     </row>
-    <row r="429" ht="17.4" spans="1:10">
+    <row r="429" ht="16.5" spans="1:10">
       <c r="A429" s="1" t="s">
         <v>10</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>111.056404</v>
       </c>
     </row>
-    <row r="430" ht="17.4" spans="1:10">
+    <row r="430" ht="16.5" spans="1:10">
       <c r="A430" s="1" t="s">
         <v>10</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>272.1746</v>
       </c>
     </row>
-    <row r="431" ht="17.4" spans="1:10">
+    <row r="431" ht="16.5" spans="1:10">
       <c r="A431" s="1" t="s">
         <v>10</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>382.5077</v>
       </c>
     </row>
-    <row r="432" ht="17.4" spans="1:10">
+    <row r="432" ht="16.5" spans="1:10">
       <c r="A432" s="1" t="s">
         <v>10</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>468.5084</v>
       </c>
     </row>
-    <row r="433" ht="17.4" spans="1:10">
+    <row r="433" ht="16.5" spans="1:10">
       <c r="A433" s="1" t="s">
         <v>10</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>1170.5714</v>
       </c>
     </row>
-    <row r="434" ht="17.4" spans="1:10">
+    <row r="434" ht="16.5" spans="1:10">
       <c r="A434" s="1" t="s">
         <v>10</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>1025.1891</v>
       </c>
     </row>
-    <row r="435" ht="17.4" spans="1:10">
+    <row r="435" ht="16.5" spans="1:10">
       <c r="A435" s="1" t="s">
         <v>10</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>189.35925</v>
       </c>
     </row>
-    <row r="436" ht="17.4" spans="1:10">
+    <row r="436" ht="16.5" spans="1:10">
       <c r="A436" s="1" t="s">
         <v>14</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>150.05637</v>
       </c>
     </row>
-    <row r="437" ht="17.4" spans="1:10">
+    <row r="437" ht="16.5" spans="1:10">
       <c r="A437" s="1" t="s">
         <v>14</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>280.72998</v>
       </c>
     </row>
-    <row r="438" ht="17.4" spans="1:10">
+    <row r="438" ht="16.5" spans="1:10">
       <c r="A438" s="1" t="s">
         <v>14</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>328.65082</v>
       </c>
     </row>
-    <row r="439" ht="17.4" spans="1:10">
+    <row r="439" ht="16.5" spans="1:10">
       <c r="A439" s="1" t="s">
         <v>14</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>131.43672</v>
       </c>
     </row>
-    <row r="440" ht="17.4" spans="1:10">
+    <row r="440" ht="16.5" spans="1:10">
       <c r="A440" s="1" t="s">
         <v>14</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>186.09163</v>
       </c>
     </row>
-    <row r="441" ht="17.4" spans="1:10">
+    <row r="441" ht="16.5" spans="1:10">
       <c r="A441" s="1" t="s">
         <v>14</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>306.87756</v>
       </c>
     </row>
-    <row r="442" ht="17.4" spans="1:10">
+    <row r="442" ht="16.5" spans="1:10">
       <c r="A442" s="1" t="s">
         <v>14</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>346.33325</v>
       </c>
     </row>
-    <row r="443" ht="17.4" spans="1:10">
+    <row r="443" ht="16.5" spans="1:10">
       <c r="A443" s="1" t="s">
         <v>14</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>201.03719</v>
       </c>
     </row>
-    <row r="444" ht="17.4" spans="1:10">
+    <row r="444" ht="16.5" spans="1:10">
       <c r="A444" s="1" t="s">
         <v>14</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>262.09164</v>
       </c>
     </row>
-    <row r="445" ht="17.4" spans="1:10">
+    <row r="445" ht="16.5" spans="1:10">
       <c r="A445" s="1" t="s">
         <v>10</v>
       </c>
@@ -15240,8 +15240,11 @@
       <c r="D445" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E445" s="1">
+        <v>1</v>
+      </c>
       <c r="F445" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G445" s="1">
         <v>10</v>
@@ -15250,13 +15253,13 @@
         <v>1</v>
       </c>
       <c r="I445" s="1">
-        <v>241.28322</v>
+        <v>6.1077676</v>
       </c>
       <c r="J445" s="1">
-        <v>334.2682</v>
-      </c>
-    </row>
-    <row r="446" ht="17.4" spans="1:10">
+        <v>40.797977</v>
+      </c>
+    </row>
+    <row r="446" ht="16.5" spans="1:10">
       <c r="A446" s="1" t="s">
         <v>10</v>
       </c>
@@ -15269,8 +15272,11 @@
       <c r="D446" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E446" s="1">
+        <v>1</v>
+      </c>
       <c r="F446" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G446" s="1">
         <v>10</v>
@@ -15279,13 +15285,13 @@
         <v>1</v>
       </c>
       <c r="I446" s="1">
-        <v>877.16425</v>
+        <v>6.441458</v>
       </c>
       <c r="J446" s="1">
-        <v>415.82254</v>
-      </c>
-    </row>
-    <row r="447" ht="17.4" spans="1:10">
+        <v>42.74802</v>
+      </c>
+    </row>
+    <row r="447" ht="16.5" spans="1:10">
       <c r="A447" s="1" t="s">
         <v>10</v>
       </c>
@@ -15298,8 +15304,11 @@
       <c r="D447" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E447" s="1">
+        <v>1</v>
+      </c>
       <c r="F447" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G447" s="1">
         <v>10</v>
@@ -15308,13 +15317,13 @@
         <v>1</v>
       </c>
       <c r="I447" s="1">
-        <v>1238.3181</v>
+        <v>7.4580407</v>
       </c>
       <c r="J447" s="1">
-        <v>715.45795</v>
-      </c>
-    </row>
-    <row r="448" ht="17.4" spans="1:10">
+        <v>40.462124</v>
+      </c>
+    </row>
+    <row r="448" ht="16.5" spans="1:10">
       <c r="A448" s="1" t="s">
         <v>10</v>
       </c>
@@ -15331,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="F448" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G448" s="1">
         <v>10</v>
@@ -15340,13 +15349,13 @@
         <v>1</v>
       </c>
       <c r="I448" s="1">
-        <v>6.1077676</v>
+        <v>199.50113</v>
       </c>
       <c r="J448" s="1">
-        <v>40.797977</v>
-      </c>
-    </row>
-    <row r="449" ht="17.4" spans="1:10">
+        <v>135.74019</v>
+      </c>
+    </row>
+    <row r="449" ht="16.5" spans="1:10">
       <c r="A449" s="1" t="s">
         <v>10</v>
       </c>
@@ -15363,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="F449" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G449" s="1">
         <v>10</v>
@@ -15372,13 +15381,13 @@
         <v>1</v>
       </c>
       <c r="I449" s="1">
-        <v>6.441458</v>
+        <v>497.56305</v>
       </c>
       <c r="J449" s="1">
-        <v>42.74802</v>
-      </c>
-    </row>
-    <row r="450" ht="17.4" spans="1:10">
+        <v>286.15714</v>
+      </c>
+    </row>
+    <row r="450" ht="16.5" spans="1:10">
       <c r="A450" s="1" t="s">
         <v>10</v>
       </c>
@@ -15395,7 +15404,7 @@
         <v>1</v>
       </c>
       <c r="F450" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G450" s="1">
         <v>10</v>
@@ -15404,15 +15413,15 @@
         <v>1</v>
       </c>
       <c r="I450" s="1">
-        <v>7.4580407</v>
+        <v>932.7933</v>
       </c>
       <c r="J450" s="1">
-        <v>40.462124</v>
-      </c>
-    </row>
-    <row r="451" ht="17.4" spans="1:10">
+        <v>723.06134</v>
+      </c>
+    </row>
+    <row r="451" ht="16.5" spans="1:10">
       <c r="A451" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>20</v>
@@ -15424,7 +15433,7 @@
         <v>23</v>
       </c>
       <c r="E451" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F451" s="1">
         <v>700</v>
@@ -15436,109 +15445,109 @@
         <v>1</v>
       </c>
       <c r="I451" s="1">
-        <v>199.50113</v>
+        <v>794.4102</v>
       </c>
       <c r="J451" s="1">
-        <v>135.74019</v>
-      </c>
-    </row>
-    <row r="452" ht="17.4" spans="1:10">
+        <v>626.5887</v>
+      </c>
+    </row>
+    <row r="452" ht="16.5" spans="1:10">
       <c r="A452" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E452" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F452" s="1">
         <v>800</v>
       </c>
       <c r="G452" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H452" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" s="1">
-        <v>497.56305</v>
+        <v>774.69025</v>
       </c>
       <c r="J452" s="1">
-        <v>286.15714</v>
-      </c>
-    </row>
-    <row r="453" ht="17.4" spans="1:10">
+        <v>373.84567</v>
+      </c>
+    </row>
+    <row r="453" ht="16.5" spans="1:10">
       <c r="A453" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E453" s="1">
         <v>1</v>
       </c>
       <c r="F453" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G453" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H453" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" s="1">
-        <v>932.7933</v>
+        <v>867.5369</v>
       </c>
       <c r="J453" s="1">
-        <v>723.06134</v>
-      </c>
-    </row>
-    <row r="454" ht="17.4" spans="1:10">
+        <v>474.4011</v>
+      </c>
+    </row>
+    <row r="454" ht="16.5" spans="1:10">
       <c r="A454" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E454" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F454" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G454" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H454" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" s="1">
-        <v>794.4102</v>
+        <v>826.4255</v>
       </c>
       <c r="J454" s="1">
-        <v>626.5887</v>
-      </c>
-    </row>
-    <row r="455" ht="17.4" spans="1:10">
+        <v>579.467</v>
+      </c>
+    </row>
+    <row r="455" ht="16.5" spans="1:10">
       <c r="A455" s="1" t="s">
         <v>10</v>
       </c>
@@ -15552,25 +15561,25 @@
         <v>24</v>
       </c>
       <c r="E455" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F455" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G455" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H455" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" s="1">
-        <v>774.69025</v>
+        <v>208.4883</v>
       </c>
       <c r="J455" s="1">
-        <v>373.84567</v>
-      </c>
-    </row>
-    <row r="456" ht="17.4" spans="1:10">
+        <v>977.40076</v>
+      </c>
+    </row>
+    <row r="456" ht="16.5" spans="1:10">
       <c r="A456" s="1" t="s">
         <v>10</v>
       </c>
@@ -15587,22 +15596,22 @@
         <v>1</v>
       </c>
       <c r="F456" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G456" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H456" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" s="1">
-        <v>867.5369</v>
+        <v>947.9128</v>
       </c>
       <c r="J456" s="1">
-        <v>474.4011</v>
-      </c>
-    </row>
-    <row r="457" ht="17.4" spans="1:10">
+        <v>1066.4642</v>
+      </c>
+    </row>
+    <row r="457" ht="16.5" spans="1:10">
       <c r="A457" s="1" t="s">
         <v>10</v>
       </c>
@@ -15616,25 +15625,25 @@
         <v>24</v>
       </c>
       <c r="E457" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F457" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G457" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H457" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" s="1">
-        <v>826.4255</v>
+        <v>126.780594</v>
       </c>
       <c r="J457" s="1">
-        <v>579.467</v>
-      </c>
-    </row>
-    <row r="458" ht="17.4" spans="1:10">
+        <v>980.06274</v>
+      </c>
+    </row>
+    <row r="458" ht="16.5" spans="1:10">
       <c r="A458" s="1" t="s">
         <v>10</v>
       </c>
@@ -15651,7 +15660,7 @@
         <v>1</v>
       </c>
       <c r="F458" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G458" s="1">
         <v>10</v>
@@ -15660,13 +15669,13 @@
         <v>1</v>
       </c>
       <c r="I458" s="1">
-        <v>208.4883</v>
+        <v>33.31572</v>
       </c>
       <c r="J458" s="1">
-        <v>977.40076</v>
-      </c>
-    </row>
-    <row r="459" ht="17.4" spans="1:10">
+        <v>719.39795</v>
+      </c>
+    </row>
+    <row r="459" ht="16.5" spans="1:10">
       <c r="A459" s="1" t="s">
         <v>10</v>
       </c>
@@ -15683,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="F459" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G459" s="1">
         <v>10</v>
@@ -15692,13 +15701,13 @@
         <v>1</v>
       </c>
       <c r="I459" s="1">
-        <v>947.9128</v>
+        <v>54.119564</v>
       </c>
       <c r="J459" s="1">
-        <v>1066.4642</v>
-      </c>
-    </row>
-    <row r="460" ht="17.4" spans="1:10">
+        <v>631.5835</v>
+      </c>
+    </row>
+    <row r="460" ht="16.5" spans="1:10">
       <c r="A460" s="1" t="s">
         <v>10</v>
       </c>
@@ -15715,7 +15724,7 @@
         <v>1</v>
       </c>
       <c r="F460" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G460" s="1">
         <v>10</v>
@@ -15724,15 +15733,15 @@
         <v>1</v>
       </c>
       <c r="I460" s="1">
-        <v>126.780594</v>
+        <v>41.951992</v>
       </c>
       <c r="J460" s="1">
-        <v>980.06274</v>
-      </c>
-    </row>
-    <row r="461" ht="17.4" spans="1:10">
+        <v>649.9232</v>
+      </c>
+    </row>
+    <row r="461" ht="16.5" spans="1:10">
       <c r="A461" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>17</v>
@@ -15747,24 +15756,24 @@
         <v>1</v>
       </c>
       <c r="F461" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G461" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H461" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I461" s="1">
-        <v>33.31572</v>
+        <v>366.23093</v>
       </c>
       <c r="J461" s="1">
-        <v>719.39795</v>
-      </c>
-    </row>
-    <row r="462" ht="17.4" spans="1:10">
+        <v>694.32556</v>
+      </c>
+    </row>
+    <row r="462" ht="16.5" spans="1:10">
       <c r="A462" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>17</v>
@@ -15776,27 +15785,27 @@
         <v>24</v>
       </c>
       <c r="E462" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F462" s="1">
         <v>800</v>
       </c>
       <c r="G462" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H462" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I462" s="1">
-        <v>54.119564</v>
+        <v>367.66882</v>
       </c>
       <c r="J462" s="1">
-        <v>631.5835</v>
-      </c>
-    </row>
-    <row r="463" ht="17.4" spans="1:10">
+        <v>854.7964</v>
+      </c>
+    </row>
+    <row r="463" ht="16.5" spans="1:10">
       <c r="A463" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>17</v>
@@ -15808,30 +15817,30 @@
         <v>24</v>
       </c>
       <c r="E463" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F463" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G463" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H463" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I463" s="1">
-        <v>41.951992</v>
+        <v>251.68506</v>
       </c>
       <c r="J463" s="1">
-        <v>649.9232</v>
-      </c>
-    </row>
-    <row r="464" ht="17.4" spans="1:10">
+        <v>779.2957</v>
+      </c>
+    </row>
+    <row r="464" ht="16.5" spans="1:10">
       <c r="A464" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>22</v>
@@ -15843,27 +15852,27 @@
         <v>1</v>
       </c>
       <c r="F464" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G464" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H464" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I464" s="1">
-        <v>366.23093</v>
+        <v>117.95476</v>
       </c>
       <c r="J464" s="1">
-        <v>694.32556</v>
-      </c>
-    </row>
-    <row r="465" ht="17.4" spans="1:10">
+        <v>625.4198</v>
+      </c>
+    </row>
+    <row r="465" ht="16.5" spans="1:10">
       <c r="A465" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>22</v>
@@ -15872,30 +15881,30 @@
         <v>24</v>
       </c>
       <c r="E465" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F465" s="1">
+        <v>700</v>
+      </c>
+      <c r="G465" s="1">
+        <v>10</v>
+      </c>
+      <c r="H465" s="1">
         <v>1.5</v>
       </c>
-      <c r="F465" s="1">
-        <v>800</v>
-      </c>
-      <c r="G465" s="1">
-        <v>1</v>
-      </c>
-      <c r="H465" s="1">
-        <v>3</v>
-      </c>
       <c r="I465" s="1">
-        <v>367.66882</v>
+        <v>297.02194</v>
       </c>
       <c r="J465" s="1">
-        <v>854.7964</v>
-      </c>
-    </row>
-    <row r="466" ht="17.4" spans="1:10">
+        <v>251.80415</v>
+      </c>
+    </row>
+    <row r="466" ht="16.5" spans="1:10">
       <c r="A466" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>22</v>
@@ -15904,25 +15913,25 @@
         <v>24</v>
       </c>
       <c r="E466" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F466" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G466" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H466" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I466" s="1">
-        <v>251.68506</v>
+        <v>573.6211</v>
       </c>
       <c r="J466" s="1">
-        <v>779.2957</v>
-      </c>
-    </row>
-    <row r="467" ht="17.4" spans="1:10">
+        <v>344.43402</v>
+      </c>
+    </row>
+    <row r="467" ht="16.5" spans="1:10">
       <c r="A467" s="1" t="s">
         <v>10</v>
       </c>
@@ -15936,25 +15945,25 @@
         <v>24</v>
       </c>
       <c r="E467" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F467" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G467" s="1">
         <v>10</v>
       </c>
       <c r="H467" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I467" s="1">
-        <v>117.95476</v>
+        <v>292.31305</v>
       </c>
       <c r="J467" s="1">
-        <v>625.4198</v>
-      </c>
-    </row>
-    <row r="468" ht="17.4" spans="1:10">
+        <v>1122.0287</v>
+      </c>
+    </row>
+    <row r="468" ht="16.5" spans="1:10">
       <c r="A468" s="1" t="s">
         <v>10</v>
       </c>
@@ -15968,25 +15977,25 @@
         <v>24</v>
       </c>
       <c r="E468" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F468" s="1">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G468" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H468" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I468" s="1">
-        <v>297.02194</v>
+        <v>606.6546</v>
       </c>
       <c r="J468" s="1">
-        <v>251.80415</v>
-      </c>
-    </row>
-    <row r="469" ht="17.4" spans="1:10">
+        <v>580.3188</v>
+      </c>
+    </row>
+    <row r="469" ht="16.5" spans="1:10">
       <c r="A469" s="1" t="s">
         <v>10</v>
       </c>
@@ -16003,22 +16012,22 @@
         <v>2</v>
       </c>
       <c r="F469" s="1">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G469" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H469" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I469" s="1">
-        <v>573.6211</v>
+        <v>931.6068</v>
       </c>
       <c r="J469" s="1">
-        <v>344.43402</v>
-      </c>
-    </row>
-    <row r="470" ht="17.4" spans="1:10">
+        <v>412.01056</v>
+      </c>
+    </row>
+    <row r="470" ht="16.5" spans="1:10">
       <c r="A470" s="1" t="s">
         <v>10</v>
       </c>
@@ -16032,25 +16041,25 @@
         <v>24</v>
       </c>
       <c r="E470" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F470" s="1">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G470" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H470" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I470" s="1">
-        <v>292.31305</v>
+        <v>1382.2006</v>
       </c>
       <c r="J470" s="1">
-        <v>1122.0287</v>
-      </c>
-    </row>
-    <row r="471" ht="17.4" spans="1:10">
+        <v>1320.6503</v>
+      </c>
+    </row>
+    <row r="471" ht="16.5" spans="1:10">
       <c r="A471" s="1" t="s">
         <v>10</v>
       </c>
@@ -16067,7 +16076,7 @@
         <v>1</v>
       </c>
       <c r="F471" s="1">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="G471" s="1">
         <v>5</v>
@@ -16076,13 +16085,13 @@
         <v>1</v>
       </c>
       <c r="I471" s="1">
-        <v>606.6546</v>
+        <v>773.61896</v>
       </c>
       <c r="J471" s="1">
-        <v>580.3188</v>
-      </c>
-    </row>
-    <row r="472" ht="17.4" spans="1:10">
+        <v>650.53046</v>
+      </c>
+    </row>
+    <row r="472" ht="16.5" spans="1:10">
       <c r="A472" s="1" t="s">
         <v>10</v>
       </c>
@@ -16096,25 +16105,25 @@
         <v>24</v>
       </c>
       <c r="E472" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F472" s="1">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G472" s="1">
         <v>5</v>
       </c>
       <c r="H472" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I472" s="1">
-        <v>931.6068</v>
+        <v>1293.4198</v>
       </c>
       <c r="J472" s="1">
-        <v>412.01056</v>
-      </c>
-    </row>
-    <row r="473" ht="17.4" spans="1:10">
+        <v>385.36368</v>
+      </c>
+    </row>
+    <row r="473" ht="16.5" spans="1:10">
       <c r="A473" s="1" t="s">
         <v>10</v>
       </c>
@@ -16128,25 +16137,25 @@
         <v>24</v>
       </c>
       <c r="E473" s="1">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F473" s="1">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G473" s="1">
         <v>5</v>
       </c>
       <c r="H473" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I473" s="1">
-        <v>1382.2006</v>
+        <v>1382.8427</v>
       </c>
       <c r="J473" s="1">
-        <v>1320.6503</v>
-      </c>
-    </row>
-    <row r="474" ht="17.4" spans="1:10">
+        <v>282.1107</v>
+      </c>
+    </row>
+    <row r="474" ht="16.5" spans="1:10">
       <c r="A474" s="1" t="s">
         <v>10</v>
       </c>
@@ -16163,22 +16172,22 @@
         <v>1</v>
       </c>
       <c r="F474" s="1">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G474" s="1">
         <v>5</v>
       </c>
       <c r="H474" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I474" s="1">
-        <v>773.61896</v>
+        <v>889.41003</v>
       </c>
       <c r="J474" s="1">
-        <v>650.53046</v>
-      </c>
-    </row>
-    <row r="475" ht="17.4" spans="1:10">
+        <v>406.66565</v>
+      </c>
+    </row>
+    <row r="475" ht="16.5" spans="1:10">
       <c r="A475" s="1" t="s">
         <v>10</v>
       </c>
@@ -16195,22 +16204,22 @@
         <v>3</v>
       </c>
       <c r="F475" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G475" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H475" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I475" s="1">
-        <v>1293.4198</v>
+        <v>685.6942</v>
       </c>
       <c r="J475" s="1">
-        <v>385.36368</v>
-      </c>
-    </row>
-    <row r="476" ht="17.4" spans="1:10">
+        <v>695.72327</v>
+      </c>
+    </row>
+    <row r="476" ht="16.5" spans="1:10">
       <c r="A476" s="1" t="s">
         <v>10</v>
       </c>
@@ -16224,25 +16233,25 @@
         <v>24</v>
       </c>
       <c r="E476" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F476" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G476" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H476" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I476" s="1">
-        <v>1382.8427</v>
+        <v>871.128</v>
       </c>
       <c r="J476" s="1">
-        <v>282.1107</v>
-      </c>
-    </row>
-    <row r="477" ht="17.4" spans="1:10">
+        <v>609.30176</v>
+      </c>
+    </row>
+    <row r="477" ht="16.5" spans="1:10">
       <c r="A477" s="1" t="s">
         <v>10</v>
       </c>
@@ -16256,25 +16265,25 @@
         <v>24</v>
       </c>
       <c r="E477" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F477" s="1">
         <v>700</v>
       </c>
       <c r="G477" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H477" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I477" s="1">
-        <v>889.41003</v>
+        <v>566.42596</v>
       </c>
       <c r="J477" s="1">
-        <v>406.66565</v>
-      </c>
-    </row>
-    <row r="478" ht="17.4" spans="1:10">
+        <v>1135.5602</v>
+      </c>
+    </row>
+    <row r="478" ht="16.5" spans="1:10">
       <c r="A478" s="1" t="s">
         <v>10</v>
       </c>
@@ -16291,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="F478" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G478" s="1">
         <v>10</v>
@@ -16300,13 +16309,13 @@
         <v>2</v>
       </c>
       <c r="I478" s="1">
-        <v>685.6942</v>
+        <v>656.0207</v>
       </c>
       <c r="J478" s="1">
-        <v>695.72327</v>
-      </c>
-    </row>
-    <row r="479" ht="17.4" spans="1:10">
+        <v>899.0682</v>
+      </c>
+    </row>
+    <row r="479" ht="16.5" spans="1:10">
       <c r="A479" s="1" t="s">
         <v>10</v>
       </c>
@@ -16323,7 +16332,7 @@
         <v>3</v>
       </c>
       <c r="F479" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G479" s="1">
         <v>10</v>
@@ -16332,13 +16341,13 @@
         <v>2</v>
       </c>
       <c r="I479" s="1">
-        <v>871.128</v>
+        <v>879.50116</v>
       </c>
       <c r="J479" s="1">
-        <v>609.30176</v>
-      </c>
-    </row>
-    <row r="480" ht="17.4" spans="1:10">
+        <v>800.7499</v>
+      </c>
+    </row>
+    <row r="480" ht="16.5" spans="1:10">
       <c r="A480" s="1" t="s">
         <v>10</v>
       </c>
@@ -16352,7 +16361,7 @@
         <v>24</v>
       </c>
       <c r="E480" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F480" s="1">
         <v>700</v>
@@ -16364,13 +16373,13 @@
         <v>2</v>
       </c>
       <c r="I480" s="1">
-        <v>566.42596</v>
+        <v>907.07056</v>
       </c>
       <c r="J480" s="1">
-        <v>1135.5602</v>
-      </c>
-    </row>
-    <row r="481" ht="17.4" spans="1:10">
+        <v>423.25534</v>
+      </c>
+    </row>
+    <row r="481" ht="16.5" spans="1:10">
       <c r="A481" s="1" t="s">
         <v>10</v>
       </c>
@@ -16384,10 +16393,10 @@
         <v>24</v>
       </c>
       <c r="E481" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F481" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G481" s="1">
         <v>10</v>
@@ -16396,13 +16405,13 @@
         <v>2</v>
       </c>
       <c r="I481" s="1">
-        <v>656.0207</v>
+        <v>696.4401</v>
       </c>
       <c r="J481" s="1">
-        <v>899.0682</v>
-      </c>
-    </row>
-    <row r="482" ht="17.4" spans="1:10">
+        <v>1001.4198</v>
+      </c>
+    </row>
+    <row r="482" ht="16.5" spans="1:10">
       <c r="A482" s="1" t="s">
         <v>10</v>
       </c>
@@ -16416,10 +16425,10 @@
         <v>24</v>
       </c>
       <c r="E482" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F482" s="1">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G482" s="1">
         <v>10</v>
@@ -16428,13 +16437,13 @@
         <v>2</v>
       </c>
       <c r="I482" s="1">
-        <v>879.50116</v>
+        <v>716.75323</v>
       </c>
       <c r="J482" s="1">
-        <v>800.7499</v>
-      </c>
-    </row>
-    <row r="483" ht="17.4" spans="1:10">
+        <v>857.04553</v>
+      </c>
+    </row>
+    <row r="483" ht="16.5" spans="1:10">
       <c r="A483" s="1" t="s">
         <v>10</v>
       </c>
@@ -16448,25 +16457,25 @@
         <v>24</v>
       </c>
       <c r="E483" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F483" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G483" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H483" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" s="1">
-        <v>907.07056</v>
+        <v>1665.5145</v>
       </c>
       <c r="J483" s="1">
-        <v>423.25534</v>
-      </c>
-    </row>
-    <row r="484" ht="17.4" spans="1:10">
+        <v>361.14728</v>
+      </c>
+    </row>
+    <row r="484" ht="16.5" spans="1:10">
       <c r="A484" s="1" t="s">
         <v>10</v>
       </c>
@@ -16483,22 +16492,22 @@
         <v>2</v>
       </c>
       <c r="F484" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G484" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H484" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" s="1">
-        <v>696.4401</v>
+        <v>1201.4579</v>
       </c>
       <c r="J484" s="1">
-        <v>1001.4198</v>
-      </c>
-    </row>
-    <row r="485" ht="17.4" spans="1:10">
+        <v>797.35516</v>
+      </c>
+    </row>
+    <row r="485" ht="16.5" spans="1:10">
       <c r="A485" s="1" t="s">
         <v>10</v>
       </c>
@@ -16512,25 +16521,25 @@
         <v>24</v>
       </c>
       <c r="E485" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F485" s="1">
         <v>700</v>
       </c>
       <c r="G485" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H485" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" s="1">
-        <v>716.75323</v>
+        <v>1781.074</v>
       </c>
       <c r="J485" s="1">
-        <v>857.04553</v>
-      </c>
-    </row>
-    <row r="486" ht="17.4" spans="1:10">
+        <v>511.65228</v>
+      </c>
+    </row>
+    <row r="486" ht="16.5" spans="1:10">
       <c r="A486" s="1" t="s">
         <v>10</v>
       </c>
@@ -16544,10 +16553,10 @@
         <v>24</v>
       </c>
       <c r="E486" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F486" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G486" s="1">
         <v>5</v>
@@ -16556,13 +16565,13 @@
         <v>1</v>
       </c>
       <c r="I486" s="1">
-        <v>1665.5145</v>
+        <v>1469.0665</v>
       </c>
       <c r="J486" s="1">
-        <v>361.14728</v>
-      </c>
-    </row>
-    <row r="487" ht="17.4" spans="1:10">
+        <v>217.68935</v>
+      </c>
+    </row>
+    <row r="487" ht="16.5" spans="1:10">
       <c r="A487" s="1" t="s">
         <v>10</v>
       </c>
@@ -16576,7 +16585,7 @@
         <v>24</v>
       </c>
       <c r="E487" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F487" s="1">
         <v>600</v>
@@ -16588,13 +16597,13 @@
         <v>1</v>
       </c>
       <c r="I487" s="1">
-        <v>1201.4579</v>
+        <v>1790.0801</v>
       </c>
       <c r="J487" s="1">
-        <v>797.35516</v>
-      </c>
-    </row>
-    <row r="488" ht="17.4" spans="1:10">
+        <v>313.95944</v>
+      </c>
+    </row>
+    <row r="488" ht="16.5" spans="1:10">
       <c r="A488" s="1" t="s">
         <v>10</v>
       </c>
@@ -16608,10 +16617,10 @@
         <v>24</v>
       </c>
       <c r="E488" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F488" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G488" s="1">
         <v>5</v>
@@ -16620,13 +16629,13 @@
         <v>1</v>
       </c>
       <c r="I488" s="1">
-        <v>1781.074</v>
+        <v>1432.5356</v>
       </c>
       <c r="J488" s="1">
-        <v>511.65228</v>
-      </c>
-    </row>
-    <row r="489" ht="17.4" spans="1:10">
+        <v>581.99316</v>
+      </c>
+    </row>
+    <row r="489" ht="16.5" spans="1:10">
       <c r="A489" s="1" t="s">
         <v>10</v>
       </c>
@@ -16646,19 +16655,19 @@
         <v>600</v>
       </c>
       <c r="G489" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H489" s="1">
         <v>1</v>
       </c>
       <c r="I489" s="1">
-        <v>1469.0665</v>
+        <v>356.7324</v>
       </c>
       <c r="J489" s="1">
-        <v>217.68935</v>
-      </c>
-    </row>
-    <row r="490" ht="17.4" spans="1:10">
+        <v>378.07523</v>
+      </c>
+    </row>
+    <row r="490" ht="16.5" spans="1:10">
       <c r="A490" s="1" t="s">
         <v>10</v>
       </c>
@@ -16672,25 +16681,25 @@
         <v>24</v>
       </c>
       <c r="E490" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F490" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G490" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H490" s="1">
         <v>1</v>
       </c>
       <c r="I490" s="1">
-        <v>1790.0801</v>
+        <v>596.8878</v>
       </c>
       <c r="J490" s="1">
-        <v>313.95944</v>
-      </c>
-    </row>
-    <row r="491" ht="17.4" spans="1:10">
+        <v>420.692</v>
+      </c>
+    </row>
+    <row r="491" ht="16.5" spans="1:10">
       <c r="A491" s="1" t="s">
         <v>10</v>
       </c>
@@ -16704,25 +16713,25 @@
         <v>24</v>
       </c>
       <c r="E491" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F491" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G491" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H491" s="1">
         <v>1</v>
       </c>
       <c r="I491" s="1">
-        <v>1432.5356</v>
+        <v>326.67053</v>
       </c>
       <c r="J491" s="1">
-        <v>581.99316</v>
-      </c>
-    </row>
-    <row r="492" ht="17.4" spans="1:10">
+        <v>488.7274</v>
+      </c>
+    </row>
+    <row r="492" ht="16.5" spans="1:10">
       <c r="A492" s="1" t="s">
         <v>10</v>
       </c>
@@ -16739,7 +16748,7 @@
         <v>1</v>
       </c>
       <c r="F492" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G492" s="1">
         <v>10</v>
@@ -16748,13 +16757,13 @@
         <v>1</v>
       </c>
       <c r="I492" s="1">
-        <v>356.7324</v>
+        <v>331.42587</v>
       </c>
       <c r="J492" s="1">
-        <v>378.07523</v>
-      </c>
-    </row>
-    <row r="493" ht="17.4" spans="1:10">
+        <v>292.336</v>
+      </c>
+    </row>
+    <row r="493" ht="16.5" spans="1:10">
       <c r="A493" s="1" t="s">
         <v>10</v>
       </c>
@@ -16780,13 +16789,13 @@
         <v>1</v>
       </c>
       <c r="I493" s="1">
-        <v>596.8878</v>
+        <v>437.6336</v>
       </c>
       <c r="J493" s="1">
-        <v>420.692</v>
-      </c>
-    </row>
-    <row r="494" ht="17.4" spans="1:10">
+        <v>304.39563</v>
+      </c>
+    </row>
+    <row r="494" ht="16.5" spans="1:10">
       <c r="A494" s="1" t="s">
         <v>10</v>
       </c>
@@ -16803,7 +16812,7 @@
         <v>1</v>
       </c>
       <c r="F494" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G494" s="1">
         <v>10</v>
@@ -16812,13 +16821,13 @@
         <v>1</v>
       </c>
       <c r="I494" s="1">
-        <v>326.67053</v>
+        <v>506.70544</v>
       </c>
       <c r="J494" s="1">
-        <v>488.7274</v>
-      </c>
-    </row>
-    <row r="495" ht="17.4" spans="1:10">
+        <v>401.78967</v>
+      </c>
+    </row>
+    <row r="495" ht="16.5" spans="1:10">
       <c r="A495" s="1" t="s">
         <v>10</v>
       </c>
@@ -16832,7 +16841,7 @@
         <v>24</v>
       </c>
       <c r="E495" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F495" s="1">
         <v>700</v>
@@ -16844,13 +16853,13 @@
         <v>1</v>
       </c>
       <c r="I495" s="1">
-        <v>331.42587</v>
+        <v>568.207</v>
       </c>
       <c r="J495" s="1">
-        <v>292.336</v>
-      </c>
-    </row>
-    <row r="496" ht="17.4" spans="1:10">
+        <v>449.81842</v>
+      </c>
+    </row>
+    <row r="496" ht="16.5" spans="1:10">
       <c r="A496" s="1" t="s">
         <v>10</v>
       </c>
@@ -16864,7 +16873,7 @@
         <v>24</v>
       </c>
       <c r="E496" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F496" s="1">
         <v>700</v>
@@ -16876,13 +16885,13 @@
         <v>1</v>
       </c>
       <c r="I496" s="1">
-        <v>437.6336</v>
+        <v>560.0418</v>
       </c>
       <c r="J496" s="1">
-        <v>304.39563</v>
-      </c>
-    </row>
-    <row r="497" ht="17.4" spans="1:10">
+        <v>476.90997</v>
+      </c>
+    </row>
+    <row r="497" ht="16.5" spans="1:10">
       <c r="A497" s="1" t="s">
         <v>10</v>
       </c>
@@ -16896,7 +16905,7 @@
         <v>24</v>
       </c>
       <c r="E497" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F497" s="1">
         <v>700</v>
@@ -16908,13 +16917,13 @@
         <v>1</v>
       </c>
       <c r="I497" s="1">
-        <v>506.70544</v>
+        <v>601.98975</v>
       </c>
       <c r="J497" s="1">
-        <v>401.78967</v>
-      </c>
-    </row>
-    <row r="498" ht="17.4" spans="1:10">
+        <v>440.83856</v>
+      </c>
+    </row>
+    <row r="498" ht="16.5" spans="1:10">
       <c r="A498" s="1" t="s">
         <v>10</v>
       </c>
@@ -16928,25 +16937,25 @@
         <v>24</v>
       </c>
       <c r="E498" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F498" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G498" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H498" s="1">
         <v>1</v>
       </c>
       <c r="I498" s="1">
-        <v>568.207</v>
+        <v>218.64091</v>
       </c>
       <c r="J498" s="1">
-        <v>449.81842</v>
-      </c>
-    </row>
-    <row r="499" ht="17.4" spans="1:10">
+        <v>1535.5475</v>
+      </c>
+    </row>
+    <row r="499" ht="16.5" spans="1:10">
       <c r="A499" s="1" t="s">
         <v>10</v>
       </c>
@@ -16960,25 +16969,25 @@
         <v>24</v>
       </c>
       <c r="E499" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F499" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G499" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H499" s="1">
         <v>1</v>
       </c>
       <c r="I499" s="1">
-        <v>560.0418</v>
+        <v>159.65584</v>
       </c>
       <c r="J499" s="1">
-        <v>476.90997</v>
-      </c>
-    </row>
-    <row r="500" ht="17.4" spans="1:10">
+        <v>1403.8798</v>
+      </c>
+    </row>
+    <row r="500" ht="16.5" spans="1:10">
       <c r="A500" s="1" t="s">
         <v>10</v>
       </c>
@@ -16992,25 +17001,25 @@
         <v>24</v>
       </c>
       <c r="E500" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F500" s="1">
         <v>700</v>
       </c>
       <c r="G500" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H500" s="1">
         <v>1</v>
       </c>
       <c r="I500" s="1">
-        <v>601.98975</v>
+        <v>178.90007</v>
       </c>
       <c r="J500" s="1">
-        <v>440.83856</v>
-      </c>
-    </row>
-    <row r="501" ht="17.4" spans="1:10">
+        <v>1180.0308</v>
+      </c>
+    </row>
+    <row r="501" ht="16.5" spans="1:10">
       <c r="A501" s="1" t="s">
         <v>10</v>
       </c>
@@ -17024,25 +17033,25 @@
         <v>24</v>
       </c>
       <c r="E501" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F501" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G501" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H501" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I501" s="1">
-        <v>218.64091</v>
+        <v>497.14456</v>
       </c>
       <c r="J501" s="1">
-        <v>1535.5475</v>
-      </c>
-    </row>
-    <row r="502" ht="17.4" spans="1:10">
+        <v>272.09924</v>
+      </c>
+    </row>
+    <row r="502" ht="16.5" spans="1:10">
       <c r="A502" s="1" t="s">
         <v>10</v>
       </c>
@@ -17056,25 +17065,25 @@
         <v>24</v>
       </c>
       <c r="E502" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F502" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G502" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H502" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I502" s="1">
-        <v>159.65584</v>
+        <v>241.68451</v>
       </c>
       <c r="J502" s="1">
-        <v>1403.8798</v>
-      </c>
-    </row>
-    <row r="503" ht="17.4" spans="1:10">
+        <v>311.56268</v>
+      </c>
+    </row>
+    <row r="503" ht="16.5" spans="1:10">
       <c r="A503" s="1" t="s">
         <v>10</v>
       </c>
@@ -17088,25 +17097,25 @@
         <v>24</v>
       </c>
       <c r="E503" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F503" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G503" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H503" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" s="1">
-        <v>178.90007</v>
+        <v>197.39816</v>
       </c>
       <c r="J503" s="1">
-        <v>1180.0308</v>
-      </c>
-    </row>
-    <row r="504" ht="17.4" spans="1:10">
+        <v>322.5121</v>
+      </c>
+    </row>
+    <row r="504" ht="16.5" spans="1:10">
       <c r="A504" s="1" t="s">
         <v>10</v>
       </c>
@@ -17132,13 +17141,13 @@
         <v>2</v>
       </c>
       <c r="I504" s="1">
-        <v>497.14456</v>
+        <v>232.94658</v>
       </c>
       <c r="J504" s="1">
-        <v>272.09924</v>
-      </c>
-    </row>
-    <row r="505" ht="17.4" spans="1:10">
+        <v>872.9839</v>
+      </c>
+    </row>
+    <row r="505" ht="16.5" spans="1:10">
       <c r="A505" s="1" t="s">
         <v>10</v>
       </c>
@@ -17164,13 +17173,13 @@
         <v>2</v>
       </c>
       <c r="I505" s="1">
-        <v>241.68451</v>
+        <v>169.45969</v>
       </c>
       <c r="J505" s="1">
-        <v>311.56268</v>
-      </c>
-    </row>
-    <row r="506" ht="17.4" spans="1:10">
+        <v>1312.5527</v>
+      </c>
+    </row>
+    <row r="506" ht="16.5" spans="1:10">
       <c r="A506" s="1" t="s">
         <v>10</v>
       </c>
@@ -17196,13 +17205,13 @@
         <v>2</v>
       </c>
       <c r="I506" s="1">
-        <v>197.39816</v>
+        <v>114.7681</v>
       </c>
       <c r="J506" s="1">
-        <v>322.5121</v>
-      </c>
-    </row>
-    <row r="507" ht="17.4" spans="1:10">
+        <v>683.87573</v>
+      </c>
+    </row>
+    <row r="507" ht="16.5" spans="1:10">
       <c r="A507" s="1" t="s">
         <v>10</v>
       </c>
@@ -17216,7 +17225,7 @@
         <v>24</v>
       </c>
       <c r="E507" s="1">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="F507" s="1">
         <v>600</v>
@@ -17225,16 +17234,16 @@
         <v>10</v>
       </c>
       <c r="H507" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" s="1">
-        <v>232.94658</v>
+        <v>456.25623</v>
       </c>
       <c r="J507" s="1">
-        <v>872.9839</v>
-      </c>
-    </row>
-    <row r="508" ht="17.4" spans="1:10">
+        <v>26.820925</v>
+      </c>
+    </row>
+    <row r="508" ht="16.5" spans="1:10">
       <c r="A508" s="1" t="s">
         <v>10</v>
       </c>
@@ -17248,25 +17257,25 @@
         <v>24</v>
       </c>
       <c r="E508" s="1">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F508" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G508" s="1">
         <v>10</v>
       </c>
       <c r="H508" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" s="1">
-        <v>169.45969</v>
+        <v>543.7226</v>
       </c>
       <c r="J508" s="1">
-        <v>1312.5527</v>
-      </c>
-    </row>
-    <row r="509" ht="17.4" spans="1:10">
+        <v>127.56113</v>
+      </c>
+    </row>
+    <row r="509" ht="16.5" spans="1:10">
       <c r="A509" s="1" t="s">
         <v>10</v>
       </c>
@@ -17280,25 +17289,25 @@
         <v>24</v>
       </c>
       <c r="E509" s="1">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="F509" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G509" s="1">
         <v>10</v>
       </c>
       <c r="H509" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" s="1">
-        <v>114.7681</v>
+        <v>627.6779</v>
       </c>
       <c r="J509" s="1">
-        <v>683.87573</v>
-      </c>
-    </row>
-    <row r="510" ht="17.4" spans="1:10">
+        <v>334.8994</v>
+      </c>
+    </row>
+    <row r="510" ht="16.5" spans="1:10">
       <c r="A510" s="1" t="s">
         <v>10</v>
       </c>
@@ -17312,7 +17321,7 @@
         <v>24</v>
       </c>
       <c r="E510" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F510" s="1">
         <v>600</v>
@@ -17324,13 +17333,13 @@
         <v>1</v>
       </c>
       <c r="I510" s="1">
-        <v>456.25623</v>
+        <v>246.2217</v>
       </c>
       <c r="J510" s="1">
-        <v>26.820925</v>
-      </c>
-    </row>
-    <row r="511" ht="17.4" spans="1:10">
+        <v>546.59796</v>
+      </c>
+    </row>
+    <row r="511" ht="16.5" spans="1:10">
       <c r="A511" s="1" t="s">
         <v>10</v>
       </c>
@@ -17344,10 +17353,10 @@
         <v>24</v>
       </c>
       <c r="E511" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F511" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G511" s="1">
         <v>10</v>
@@ -17356,13 +17365,13 @@
         <v>1</v>
       </c>
       <c r="I511" s="1">
-        <v>543.7226</v>
+        <v>547.11707</v>
       </c>
       <c r="J511" s="1">
-        <v>127.56113</v>
-      </c>
-    </row>
-    <row r="512" ht="17.4" spans="1:10">
+        <v>522.5451</v>
+      </c>
+    </row>
+    <row r="512" ht="16.5" spans="1:10">
       <c r="A512" s="1" t="s">
         <v>10</v>
       </c>
@@ -17376,10 +17385,10 @@
         <v>24</v>
       </c>
       <c r="E512" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F512" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G512" s="1">
         <v>10</v>
@@ -17388,13 +17397,13 @@
         <v>1</v>
       </c>
       <c r="I512" s="1">
-        <v>627.6779</v>
+        <v>359.21405</v>
       </c>
       <c r="J512" s="1">
-        <v>334.8994</v>
-      </c>
-    </row>
-    <row r="513" ht="17.4" spans="1:10">
+        <v>873.5487</v>
+      </c>
+    </row>
+    <row r="513" ht="16.5" spans="1:10">
       <c r="A513" s="1" t="s">
         <v>10</v>
       </c>
@@ -17420,13 +17429,13 @@
         <v>1</v>
       </c>
       <c r="I513" s="1">
-        <v>246.2217</v>
+        <v>1118.0022</v>
       </c>
       <c r="J513" s="1">
-        <v>546.59796</v>
-      </c>
-    </row>
-    <row r="514" ht="17.4" spans="1:10">
+        <v>1144.3208</v>
+      </c>
+    </row>
+    <row r="514" ht="16.5" spans="1:10">
       <c r="A514" s="1" t="s">
         <v>10</v>
       </c>
@@ -17443,7 +17452,7 @@
         <v>1</v>
       </c>
       <c r="F514" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G514" s="1">
         <v>10</v>
@@ -17452,13 +17461,13 @@
         <v>1</v>
       </c>
       <c r="I514" s="1">
-        <v>547.11707</v>
+        <v>292.9775</v>
       </c>
       <c r="J514" s="1">
-        <v>522.5451</v>
-      </c>
-    </row>
-    <row r="515" ht="17.4" spans="1:10">
+        <v>922.43164</v>
+      </c>
+    </row>
+    <row r="515" ht="16.5" spans="1:10">
       <c r="A515" s="1" t="s">
         <v>10</v>
       </c>
@@ -17475,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="F515" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G515" s="1">
         <v>10</v>
@@ -17484,13 +17493,13 @@
         <v>1</v>
       </c>
       <c r="I515" s="1">
-        <v>359.21405</v>
+        <v>204.95244</v>
       </c>
       <c r="J515" s="1">
-        <v>873.5487</v>
-      </c>
-    </row>
-    <row r="516" ht="17.4" spans="1:10">
+        <v>846.5989</v>
+      </c>
+    </row>
+    <row r="516" ht="16.5" spans="1:10">
       <c r="A516" s="1" t="s">
         <v>10</v>
       </c>
@@ -17504,7 +17513,7 @@
         <v>24</v>
       </c>
       <c r="E516" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F516" s="1">
         <v>600</v>
@@ -17516,13 +17525,13 @@
         <v>1</v>
       </c>
       <c r="I516" s="1">
-        <v>1118.0022</v>
+        <v>349.4032</v>
       </c>
       <c r="J516" s="1">
-        <v>1144.3208</v>
-      </c>
-    </row>
-    <row r="517" ht="17.4" spans="1:10">
+        <v>625.71716</v>
+      </c>
+    </row>
+    <row r="517" ht="16.5" spans="1:10">
       <c r="A517" s="1" t="s">
         <v>10</v>
       </c>
@@ -17536,10 +17545,10 @@
         <v>24</v>
       </c>
       <c r="E517" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F517" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G517" s="1">
         <v>10</v>
@@ -17548,13 +17557,13 @@
         <v>1</v>
       </c>
       <c r="I517" s="1">
-        <v>292.9775</v>
+        <v>637.9127</v>
       </c>
       <c r="J517" s="1">
-        <v>922.43164</v>
-      </c>
-    </row>
-    <row r="518" ht="17.4" spans="1:10">
+        <v>1066.8412</v>
+      </c>
+    </row>
+    <row r="518" ht="16.5" spans="1:10">
       <c r="A518" s="1" t="s">
         <v>10</v>
       </c>
@@ -17568,10 +17577,10 @@
         <v>24</v>
       </c>
       <c r="E518" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F518" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G518" s="1">
         <v>10</v>
@@ -17580,13 +17589,13 @@
         <v>1</v>
       </c>
       <c r="I518" s="1">
-        <v>204.95244</v>
+        <v>631.0285</v>
       </c>
       <c r="J518" s="1">
-        <v>846.5989</v>
-      </c>
-    </row>
-    <row r="519" ht="17.4" spans="1:10">
+        <v>938.0845</v>
+      </c>
+    </row>
+    <row r="519" ht="16.5" spans="1:10">
       <c r="A519" s="1" t="s">
         <v>10</v>
       </c>
@@ -17600,7 +17609,7 @@
         <v>24</v>
       </c>
       <c r="E519" s="1">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F519" s="1">
         <v>600</v>
@@ -17612,13 +17621,13 @@
         <v>1</v>
       </c>
       <c r="I519" s="1">
-        <v>349.4032</v>
+        <v>1309.8041</v>
       </c>
       <c r="J519" s="1">
-        <v>625.71716</v>
-      </c>
-    </row>
-    <row r="520" ht="17.4" spans="1:10">
+        <v>1117.7551</v>
+      </c>
+    </row>
+    <row r="520" ht="16.5" spans="1:10">
       <c r="A520" s="1" t="s">
         <v>10</v>
       </c>
@@ -17632,10 +17641,10 @@
         <v>24</v>
       </c>
       <c r="E520" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F520" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G520" s="1">
         <v>10</v>
@@ -17644,15 +17653,15 @@
         <v>1</v>
       </c>
       <c r="I520" s="1">
-        <v>637.9127</v>
+        <v>248.63417</v>
       </c>
       <c r="J520" s="1">
-        <v>1066.8412</v>
-      </c>
-    </row>
-    <row r="521" ht="17.4" spans="1:10">
+        <v>839.3255</v>
+      </c>
+    </row>
+    <row r="521" ht="16.5" spans="1:10">
       <c r="A521" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>20</v>
@@ -17664,7 +17673,7 @@
         <v>24</v>
       </c>
       <c r="E521" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F521" s="1">
         <v>600</v>
@@ -17676,15 +17685,15 @@
         <v>1</v>
       </c>
       <c r="I521" s="1">
-        <v>631.0285</v>
+        <v>60.91983</v>
       </c>
       <c r="J521" s="1">
-        <v>938.0845</v>
-      </c>
-    </row>
-    <row r="522" ht="17.4" spans="1:10">
+        <v>196.42961</v>
+      </c>
+    </row>
+    <row r="522" ht="16.5" spans="1:10">
       <c r="A522" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>20</v>
@@ -17696,10 +17705,10 @@
         <v>24</v>
       </c>
       <c r="E522" s="1">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F522" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G522" s="1">
         <v>10</v>
@@ -17708,15 +17717,15 @@
         <v>1</v>
       </c>
       <c r="I522" s="1">
-        <v>1309.8041</v>
+        <v>137.70244</v>
       </c>
       <c r="J522" s="1">
-        <v>1117.7551</v>
-      </c>
-    </row>
-    <row r="523" ht="17.4" spans="1:10">
+        <v>268.5313</v>
+      </c>
+    </row>
+    <row r="523" ht="16.5" spans="1:10">
       <c r="A523" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>20</v>
@@ -17728,10 +17737,10 @@
         <v>24</v>
       </c>
       <c r="E523" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F523" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G523" s="1">
         <v>10</v>
@@ -17740,13 +17749,13 @@
         <v>1</v>
       </c>
       <c r="I523" s="1">
-        <v>248.63417</v>
+        <v>389.37018</v>
       </c>
       <c r="J523" s="1">
-        <v>839.3255</v>
-      </c>
-    </row>
-    <row r="524" ht="17.4" spans="1:10">
+        <v>302.74902</v>
+      </c>
+    </row>
+    <row r="524" ht="16.5" spans="1:10">
       <c r="A524" s="1" t="s">
         <v>14</v>
       </c>
@@ -17763,7 +17772,7 @@
         <v>4</v>
       </c>
       <c r="F524" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G524" s="1">
         <v>10</v>
@@ -17772,13 +17781,13 @@
         <v>1</v>
       </c>
       <c r="I524" s="1">
-        <v>60.91983</v>
+        <v>419.7164</v>
       </c>
       <c r="J524" s="1">
-        <v>196.42961</v>
-      </c>
-    </row>
-    <row r="525" ht="17.4" spans="1:10">
+        <v>345.3726</v>
+      </c>
+    </row>
+    <row r="525" ht="16.5" spans="1:10">
       <c r="A525" s="1" t="s">
         <v>14</v>
       </c>
@@ -17792,10 +17801,10 @@
         <v>24</v>
       </c>
       <c r="E525" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F525" s="1">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G525" s="1">
         <v>10</v>
@@ -17804,13 +17813,13 @@
         <v>1</v>
       </c>
       <c r="I525" s="1">
-        <v>137.70244</v>
+        <v>245.85692</v>
       </c>
       <c r="J525" s="1">
-        <v>268.5313</v>
-      </c>
-    </row>
-    <row r="526" ht="17.4" spans="1:10">
+        <v>300.23187</v>
+      </c>
+    </row>
+    <row r="526" ht="16.5" spans="1:10">
       <c r="A526" s="1" t="s">
         <v>14</v>
       </c>
@@ -17824,10 +17833,10 @@
         <v>24</v>
       </c>
       <c r="E526" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F526" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G526" s="1">
         <v>10</v>
@@ -17836,13 +17845,13 @@
         <v>1</v>
       </c>
       <c r="I526" s="1">
-        <v>389.37018</v>
+        <v>327.1772</v>
       </c>
       <c r="J526" s="1">
-        <v>302.74902</v>
-      </c>
-    </row>
-    <row r="527" ht="17.4" spans="1:10">
+        <v>276.10226</v>
+      </c>
+    </row>
+    <row r="527" ht="16.5" spans="1:10">
       <c r="A527" s="1" t="s">
         <v>14</v>
       </c>
@@ -17856,7 +17865,7 @@
         <v>24</v>
       </c>
       <c r="E527" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F527" s="1">
         <v>900</v>
@@ -17868,13 +17877,13 @@
         <v>1</v>
       </c>
       <c r="I527" s="1">
-        <v>419.7164</v>
+        <v>351.3772</v>
       </c>
       <c r="J527" s="1">
-        <v>345.3726</v>
-      </c>
-    </row>
-    <row r="528" ht="17.4" spans="1:10">
+        <v>306.2805</v>
+      </c>
+    </row>
+    <row r="528" ht="16.5" spans="1:10">
       <c r="A528" s="1" t="s">
         <v>14</v>
       </c>
@@ -17888,7 +17897,7 @@
         <v>24</v>
       </c>
       <c r="E528" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F528" s="1">
         <v>900</v>
@@ -17900,13 +17909,13 @@
         <v>1</v>
       </c>
       <c r="I528" s="1">
-        <v>245.85692</v>
+        <v>419.7164</v>
       </c>
       <c r="J528" s="1">
-        <v>300.23187</v>
-      </c>
-    </row>
-    <row r="529" ht="17.4" spans="1:10">
+        <v>345.3726</v>
+      </c>
+    </row>
+    <row r="529" ht="16.5" spans="1:10">
       <c r="A529" s="1" t="s">
         <v>14</v>
       </c>
@@ -17920,10 +17929,10 @@
         <v>24</v>
       </c>
       <c r="E529" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F529" s="1">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G529" s="1">
         <v>10</v>
@@ -17932,13 +17941,13 @@
         <v>1</v>
       </c>
       <c r="I529" s="1">
-        <v>327.1772</v>
+        <v>910.7204</v>
       </c>
       <c r="J529" s="1">
-        <v>276.10226</v>
-      </c>
-    </row>
-    <row r="530" ht="17.4" spans="1:10">
+        <v>406.84744</v>
+      </c>
+    </row>
+    <row r="530" ht="16.5" spans="1:10">
       <c r="A530" s="1" t="s">
         <v>14</v>
       </c>
@@ -17952,25 +17961,25 @@
         <v>24</v>
       </c>
       <c r="E530" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F530" s="1">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="G530" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H530" s="1">
         <v>1</v>
       </c>
       <c r="I530" s="1">
-        <v>351.3772</v>
+        <v>266.75327</v>
       </c>
       <c r="J530" s="1">
-        <v>306.2805</v>
-      </c>
-    </row>
-    <row r="531" ht="17.4" spans="1:10">
+        <v>933.039</v>
+      </c>
+    </row>
+    <row r="531" ht="16.5" spans="1:10">
       <c r="A531" s="1" t="s">
         <v>14</v>
       </c>
@@ -17984,25 +17993,25 @@
         <v>24</v>
       </c>
       <c r="E531" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F531" s="1">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G531" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H531" s="1">
         <v>1</v>
       </c>
       <c r="I531" s="1">
-        <v>419.7164</v>
+        <v>270.93704</v>
       </c>
       <c r="J531" s="1">
-        <v>345.3726</v>
-      </c>
-    </row>
-    <row r="532" ht="17.4" spans="1:10">
+        <v>948.9944</v>
+      </c>
+    </row>
+    <row r="532" ht="16.5" spans="1:10">
       <c r="A532" s="1" t="s">
         <v>14</v>
       </c>
@@ -18016,25 +18025,25 @@
         <v>24</v>
       </c>
       <c r="E532" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F532" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G532" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H532" s="1">
         <v>1</v>
       </c>
       <c r="I532" s="1">
-        <v>910.7204</v>
+        <v>370.2217</v>
       </c>
       <c r="J532" s="1">
-        <v>406.84744</v>
-      </c>
-    </row>
-    <row r="533" ht="17.4" spans="1:10">
+        <v>568.07825</v>
+      </c>
+    </row>
+    <row r="533" ht="16.5" spans="1:10">
       <c r="A533" s="1" t="s">
         <v>14</v>
       </c>
@@ -18060,13 +18069,13 @@
         <v>1</v>
       </c>
       <c r="I533" s="1">
-        <v>266.75327</v>
+        <v>517.0144</v>
       </c>
       <c r="J533" s="1">
-        <v>933.039</v>
-      </c>
-    </row>
-    <row r="534" ht="17.4" spans="1:10">
+        <v>238.33543</v>
+      </c>
+    </row>
+    <row r="534" ht="16.5" spans="1:10">
       <c r="A534" s="1" t="s">
         <v>14</v>
       </c>
@@ -18092,30 +18101,30 @@
         <v>1</v>
       </c>
       <c r="I534" s="1">
-        <v>270.93704</v>
+        <v>143.11702</v>
       </c>
       <c r="J534" s="1">
-        <v>948.9944</v>
-      </c>
-    </row>
-    <row r="535" ht="17.4" spans="1:10">
+        <v>109.66085</v>
+      </c>
+    </row>
+    <row r="535" ht="16.5" spans="1:10">
       <c r="A535" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E535" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F535" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G535" s="1">
         <v>5</v>
@@ -18124,30 +18133,30 @@
         <v>1</v>
       </c>
       <c r="I535" s="1">
-        <v>370.2217</v>
+        <v>384.20154</v>
       </c>
       <c r="J535" s="1">
-        <v>568.07825</v>
-      </c>
-    </row>
-    <row r="536" ht="17.4" spans="1:10">
+        <v>244.47008</v>
+      </c>
+    </row>
+    <row r="536" ht="16.5" spans="1:10">
       <c r="A536" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E536" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F536" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G536" s="1">
         <v>5</v>
@@ -18156,30 +18165,30 @@
         <v>1</v>
       </c>
       <c r="I536" s="1">
-        <v>517.0144</v>
+        <v>686.30444</v>
       </c>
       <c r="J536" s="1">
-        <v>238.33543</v>
-      </c>
-    </row>
-    <row r="537" ht="17.4" spans="1:10">
+        <v>155.47795</v>
+      </c>
+    </row>
+    <row r="537" ht="16.5" spans="1:10">
       <c r="A537" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E537" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F537" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G537" s="1">
         <v>5</v>
@@ -18188,13 +18197,13 @@
         <v>1</v>
       </c>
       <c r="I537" s="1">
-        <v>143.11702</v>
+        <v>1027.8334</v>
       </c>
       <c r="J537" s="1">
-        <v>109.66085</v>
-      </c>
-    </row>
-    <row r="538" ht="17.4" spans="1:10">
+        <v>369.87997</v>
+      </c>
+    </row>
+    <row r="538" ht="16.5" spans="1:10">
       <c r="A538" s="1" t="s">
         <v>10</v>
       </c>
@@ -18211,7 +18220,7 @@
         <v>2</v>
       </c>
       <c r="F538" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G538" s="1">
         <v>5</v>
@@ -18220,13 +18229,13 @@
         <v>1</v>
       </c>
       <c r="I538" s="1">
-        <v>384.20154</v>
+        <v>1287.4191</v>
       </c>
       <c r="J538" s="1">
-        <v>244.47008</v>
-      </c>
-    </row>
-    <row r="539" ht="17.4" spans="1:10">
+        <v>348.88657</v>
+      </c>
+    </row>
+    <row r="539" ht="16.5" spans="1:10">
       <c r="A539" s="1" t="s">
         <v>10</v>
       </c>
@@ -18243,7 +18252,7 @@
         <v>3</v>
       </c>
       <c r="F539" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G539" s="1">
         <v>5</v>
@@ -18252,13 +18261,13 @@
         <v>1</v>
       </c>
       <c r="I539" s="1">
-        <v>686.30444</v>
+        <v>840.34283</v>
       </c>
       <c r="J539" s="1">
-        <v>155.47795</v>
-      </c>
-    </row>
-    <row r="540" ht="17.4" spans="1:10">
+        <v>333.7642</v>
+      </c>
+    </row>
+    <row r="540" ht="16.5" spans="1:10">
       <c r="A540" s="1" t="s">
         <v>10</v>
       </c>
@@ -18275,7 +18284,7 @@
         <v>4</v>
       </c>
       <c r="F540" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G540" s="1">
         <v>5</v>
@@ -18284,13 +18293,13 @@
         <v>1</v>
       </c>
       <c r="I540" s="1">
-        <v>1027.8334</v>
+        <v>1940.9852</v>
       </c>
       <c r="J540" s="1">
-        <v>369.87997</v>
-      </c>
-    </row>
-    <row r="541" ht="17.4" spans="1:10">
+        <v>356.384</v>
+      </c>
+    </row>
+    <row r="541" ht="16.5" spans="1:10">
       <c r="A541" s="1" t="s">
         <v>10</v>
       </c>
@@ -18307,7 +18316,7 @@
         <v>2</v>
       </c>
       <c r="F541" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G541" s="1">
         <v>5</v>
@@ -18316,13 +18325,13 @@
         <v>1</v>
       </c>
       <c r="I541" s="1">
-        <v>1287.4191</v>
+        <v>1716.9325</v>
       </c>
       <c r="J541" s="1">
-        <v>348.88657</v>
-      </c>
-    </row>
-    <row r="542" ht="17.4" spans="1:10">
+        <v>318.33035</v>
+      </c>
+    </row>
+    <row r="542" ht="16.5" spans="1:10">
       <c r="A542" s="1" t="s">
         <v>10</v>
       </c>
@@ -18339,7 +18348,7 @@
         <v>3</v>
       </c>
       <c r="F542" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G542" s="1">
         <v>5</v>
@@ -18348,13 +18357,13 @@
         <v>1</v>
       </c>
       <c r="I542" s="1">
-        <v>840.34283</v>
+        <v>2563.8945</v>
       </c>
       <c r="J542" s="1">
-        <v>333.7642</v>
-      </c>
-    </row>
-    <row r="543" ht="17.4" spans="1:10">
+        <v>560.4909</v>
+      </c>
+    </row>
+    <row r="543" ht="16.5" spans="1:10">
       <c r="A543" s="1" t="s">
         <v>10</v>
       </c>
@@ -18371,7 +18380,7 @@
         <v>4</v>
       </c>
       <c r="F543" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G543" s="1">
         <v>5</v>
@@ -18380,15 +18389,15 @@
         <v>1</v>
       </c>
       <c r="I543" s="1">
-        <v>1940.9852</v>
+        <v>2536.6523</v>
       </c>
       <c r="J543" s="1">
-        <v>356.384</v>
-      </c>
-    </row>
-    <row r="544" ht="17.4" spans="1:10">
+        <v>651.5917</v>
+      </c>
+    </row>
+    <row r="544" ht="16.5" spans="1:10">
       <c r="A544" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>17</v>
@@ -18400,7 +18409,7 @@
         <v>25</v>
       </c>
       <c r="E544" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F544" s="1">
         <v>500</v>
@@ -18412,15 +18421,15 @@
         <v>1</v>
       </c>
       <c r="I544" s="1">
-        <v>1716.9325</v>
+        <v>147.29042</v>
       </c>
       <c r="J544" s="1">
-        <v>318.33035</v>
-      </c>
-    </row>
-    <row r="545" ht="17.4" spans="1:10">
+        <v>153.87479</v>
+      </c>
+    </row>
+    <row r="545" ht="16.5" spans="1:10">
       <c r="A545" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>17</v>
@@ -18432,7 +18441,7 @@
         <v>25</v>
       </c>
       <c r="E545" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F545" s="1">
         <v>500</v>
@@ -18444,15 +18453,15 @@
         <v>1</v>
       </c>
       <c r="I545" s="1">
-        <v>2563.8945</v>
+        <v>1512.1162</v>
       </c>
       <c r="J545" s="1">
-        <v>560.4909</v>
-      </c>
-    </row>
-    <row r="546" ht="17.4" spans="1:10">
+        <v>367.1439</v>
+      </c>
+    </row>
+    <row r="546" ht="16.5" spans="1:10">
       <c r="A546" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>17</v>
@@ -18464,7 +18473,7 @@
         <v>25</v>
       </c>
       <c r="E546" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F546" s="1">
         <v>500</v>
@@ -18476,13 +18485,13 @@
         <v>1</v>
       </c>
       <c r="I546" s="1">
-        <v>2536.6523</v>
+        <v>1436.2065</v>
       </c>
       <c r="J546" s="1">
-        <v>651.5917</v>
-      </c>
-    </row>
-    <row r="547" ht="17.4" spans="1:10">
+        <v>347.6376</v>
+      </c>
+    </row>
+    <row r="547" ht="16.5" spans="1:10">
       <c r="A547" s="1" t="s">
         <v>14</v>
       </c>
@@ -18499,7 +18508,7 @@
         <v>1</v>
       </c>
       <c r="F547" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G547" s="1">
         <v>5</v>
@@ -18508,13 +18517,13 @@
         <v>1</v>
       </c>
       <c r="I547" s="1">
-        <v>147.29042</v>
+        <v>847.86444</v>
       </c>
       <c r="J547" s="1">
-        <v>153.87479</v>
-      </c>
-    </row>
-    <row r="548" ht="17.4" spans="1:10">
+        <v>343.5806</v>
+      </c>
+    </row>
+    <row r="548" ht="16.5" spans="1:10">
       <c r="A548" s="1" t="s">
         <v>14</v>
       </c>
@@ -18531,7 +18540,7 @@
         <v>2</v>
       </c>
       <c r="F548" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G548" s="1">
         <v>5</v>
@@ -18540,13 +18549,13 @@
         <v>1</v>
       </c>
       <c r="I548" s="1">
-        <v>1512.1162</v>
+        <v>1414.7197</v>
       </c>
       <c r="J548" s="1">
-        <v>367.1439</v>
-      </c>
-    </row>
-    <row r="549" ht="17.4" spans="1:10">
+        <v>351.37302</v>
+      </c>
+    </row>
+    <row r="549" ht="16.5" spans="1:10">
       <c r="A549" s="1" t="s">
         <v>14</v>
       </c>
@@ -18563,7 +18572,7 @@
         <v>3</v>
       </c>
       <c r="F549" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G549" s="1">
         <v>5</v>
@@ -18572,13 +18581,13 @@
         <v>1</v>
       </c>
       <c r="I549" s="1">
-        <v>1436.2065</v>
+        <v>1140.9287</v>
       </c>
       <c r="J549" s="1">
-        <v>347.6376</v>
-      </c>
-    </row>
-    <row r="550" ht="17.4" spans="1:10">
+        <v>335.55655</v>
+      </c>
+    </row>
+    <row r="550" ht="16.5" spans="1:10">
       <c r="A550" s="1" t="s">
         <v>14</v>
       </c>
@@ -18595,7 +18604,7 @@
         <v>1</v>
       </c>
       <c r="F550" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="G550" s="1">
         <v>5</v>
@@ -18604,13 +18613,13 @@
         <v>1</v>
       </c>
       <c r="I550" s="1">
-        <v>847.86444</v>
+        <v>30.364584</v>
       </c>
       <c r="J550" s="1">
-        <v>343.5806</v>
-      </c>
-    </row>
-    <row r="551" ht="17.4" spans="1:10">
+        <v>404.18033</v>
+      </c>
+    </row>
+    <row r="551" ht="16.5" spans="1:10">
       <c r="A551" s="1" t="s">
         <v>14</v>
       </c>
@@ -18627,7 +18636,7 @@
         <v>2</v>
       </c>
       <c r="F551" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="G551" s="1">
         <v>5</v>
@@ -18636,13 +18645,13 @@
         <v>1</v>
       </c>
       <c r="I551" s="1">
-        <v>1414.7197</v>
+        <v>1889.5978</v>
       </c>
       <c r="J551" s="1">
-        <v>351.37302</v>
-      </c>
-    </row>
-    <row r="552" ht="17.4" spans="1:10">
+        <v>356.82742</v>
+      </c>
+    </row>
+    <row r="552" ht="16.5" spans="1:10">
       <c r="A552" s="1" t="s">
         <v>14</v>
       </c>
@@ -18659,7 +18668,7 @@
         <v>3</v>
       </c>
       <c r="F552" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="G552" s="1">
         <v>5</v>
@@ -18668,13 +18677,13 @@
         <v>1</v>
       </c>
       <c r="I552" s="1">
-        <v>1140.9287</v>
+        <v>602.57935</v>
       </c>
       <c r="J552" s="1">
-        <v>335.55655</v>
-      </c>
-    </row>
-    <row r="553" ht="17.4" spans="1:10">
+        <v>332.26065</v>
+      </c>
+    </row>
+    <row r="553" ht="16.5" spans="1:10">
       <c r="A553" s="1" t="s">
         <v>14</v>
       </c>
@@ -18691,7 +18700,7 @@
         <v>1</v>
       </c>
       <c r="F553" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G553" s="1">
         <v>5</v>
@@ -18700,13 +18709,13 @@
         <v>1</v>
       </c>
       <c r="I553" s="1">
-        <v>30.364584</v>
+        <v>486.17416</v>
       </c>
       <c r="J553" s="1">
-        <v>404.18033</v>
-      </c>
-    </row>
-    <row r="554" ht="17.4" spans="1:10">
+        <v>325.55106</v>
+      </c>
+    </row>
+    <row r="554" ht="16.5" spans="1:10">
       <c r="A554" s="1" t="s">
         <v>14</v>
       </c>
@@ -18723,7 +18732,7 @@
         <v>2</v>
       </c>
       <c r="F554" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G554" s="1">
         <v>5</v>
@@ -18732,13 +18741,13 @@
         <v>1</v>
       </c>
       <c r="I554" s="1">
-        <v>1889.5978</v>
+        <v>847.08856</v>
       </c>
       <c r="J554" s="1">
-        <v>356.82742</v>
-      </c>
-    </row>
-    <row r="555" ht="17.4" spans="1:10">
+        <v>383.74063</v>
+      </c>
+    </row>
+    <row r="555" ht="16.5" spans="1:10">
       <c r="A555" s="1" t="s">
         <v>14</v>
       </c>
@@ -18755,7 +18764,7 @@
         <v>3</v>
       </c>
       <c r="F555" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G555" s="1">
         <v>5</v>
@@ -18764,13 +18773,13 @@
         <v>1</v>
       </c>
       <c r="I555" s="1">
-        <v>602.57935</v>
+        <v>830.18207</v>
       </c>
       <c r="J555" s="1">
-        <v>332.26065</v>
-      </c>
-    </row>
-    <row r="556" ht="17.4" spans="1:10">
+        <v>356.16043</v>
+      </c>
+    </row>
+    <row r="556" ht="16.5" spans="1:10">
       <c r="A556" s="1" t="s">
         <v>14</v>
       </c>
@@ -18787,7 +18796,7 @@
         <v>1</v>
       </c>
       <c r="F556" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G556" s="1">
         <v>5</v>
@@ -18796,13 +18805,13 @@
         <v>1</v>
       </c>
       <c r="I556" s="1">
-        <v>486.17416</v>
+        <v>820.9653</v>
       </c>
       <c r="J556" s="1">
-        <v>325.55106</v>
-      </c>
-    </row>
-    <row r="557" ht="17.4" spans="1:10">
+        <v>377.5864</v>
+      </c>
+    </row>
+    <row r="557" ht="16.5" spans="1:10">
       <c r="A557" s="1" t="s">
         <v>14</v>
       </c>
@@ -18819,7 +18828,7 @@
         <v>2</v>
       </c>
       <c r="F557" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G557" s="1">
         <v>5</v>
@@ -18828,13 +18837,13 @@
         <v>1</v>
       </c>
       <c r="I557" s="1">
-        <v>847.08856</v>
+        <v>1644.3436</v>
       </c>
       <c r="J557" s="1">
-        <v>383.74063</v>
-      </c>
-    </row>
-    <row r="558" ht="17.4" spans="1:10">
+        <v>323.3389</v>
+      </c>
+    </row>
+    <row r="558" ht="16.5" spans="1:10">
       <c r="A558" s="1" t="s">
         <v>14</v>
       </c>
@@ -18851,7 +18860,7 @@
         <v>3</v>
       </c>
       <c r="F558" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G558" s="1">
         <v>5</v>
@@ -18860,13 +18869,13 @@
         <v>1</v>
       </c>
       <c r="I558" s="1">
-        <v>830.18207</v>
+        <v>951.61145</v>
       </c>
       <c r="J558" s="1">
-        <v>356.16043</v>
-      </c>
-    </row>
-    <row r="559" ht="17.4" spans="1:10">
+        <v>247.72682</v>
+      </c>
+    </row>
+    <row r="559" ht="16.5" spans="1:10">
       <c r="A559" s="1" t="s">
         <v>14</v>
       </c>
@@ -18883,7 +18892,7 @@
         <v>1</v>
       </c>
       <c r="F559" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G559" s="1">
         <v>5</v>
@@ -18892,13 +18901,13 @@
         <v>1</v>
       </c>
       <c r="I559" s="1">
-        <v>820.9653</v>
+        <v>829.7613</v>
       </c>
       <c r="J559" s="1">
-        <v>377.5864</v>
-      </c>
-    </row>
-    <row r="560" ht="17.4" spans="1:10">
+        <v>370.33878</v>
+      </c>
+    </row>
+    <row r="560" ht="16.5" spans="1:10">
       <c r="A560" s="1" t="s">
         <v>14</v>
       </c>
@@ -18915,7 +18924,7 @@
         <v>2</v>
       </c>
       <c r="F560" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G560" s="1">
         <v>5</v>
@@ -18924,13 +18933,13 @@
         <v>1</v>
       </c>
       <c r="I560" s="1">
-        <v>1644.3436</v>
+        <v>1708.6132</v>
       </c>
       <c r="J560" s="1">
-        <v>323.3389</v>
-      </c>
-    </row>
-    <row r="561" ht="17.4" spans="1:10">
+        <v>399.3161</v>
+      </c>
+    </row>
+    <row r="561" ht="16.5" spans="1:10">
       <c r="A561" s="1" t="s">
         <v>14</v>
       </c>
@@ -18947,7 +18956,7 @@
         <v>3</v>
       </c>
       <c r="F561" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G561" s="1">
         <v>5</v>
@@ -18956,13 +18965,13 @@
         <v>1</v>
       </c>
       <c r="I561" s="1">
-        <v>951.61145</v>
+        <v>1504.3113</v>
       </c>
       <c r="J561" s="1">
-        <v>247.72682</v>
-      </c>
-    </row>
-    <row r="562" ht="17.4" spans="1:10">
+        <v>227.38661</v>
+      </c>
+    </row>
+    <row r="562" ht="16.5" spans="1:10">
       <c r="A562" s="1" t="s">
         <v>14</v>
       </c>
@@ -18979,7 +18988,7 @@
         <v>1</v>
       </c>
       <c r="F562" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G562" s="1">
         <v>5</v>
@@ -18988,13 +18997,13 @@
         <v>1</v>
       </c>
       <c r="I562" s="1">
-        <v>829.7613</v>
+        <v>279.98782</v>
       </c>
       <c r="J562" s="1">
-        <v>370.33878</v>
-      </c>
-    </row>
-    <row r="563" ht="17.4" spans="1:10">
+        <v>236.32458</v>
+      </c>
+    </row>
+    <row r="563" ht="16.5" spans="1:10">
       <c r="A563" s="1" t="s">
         <v>14</v>
       </c>
@@ -19011,7 +19020,7 @@
         <v>2</v>
       </c>
       <c r="F563" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G563" s="1">
         <v>5</v>
@@ -19020,13 +19029,13 @@
         <v>1</v>
       </c>
       <c r="I563" s="1">
-        <v>1708.6132</v>
+        <v>991.61615</v>
       </c>
       <c r="J563" s="1">
-        <v>399.3161</v>
-      </c>
-    </row>
-    <row r="564" ht="17.4" spans="1:10">
+        <v>418.60095</v>
+      </c>
+    </row>
+    <row r="564" ht="16.5" spans="1:10">
       <c r="A564" s="1" t="s">
         <v>14</v>
       </c>
@@ -19043,7 +19052,7 @@
         <v>3</v>
       </c>
       <c r="F564" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G564" s="1">
         <v>5</v>
@@ -19052,13 +19061,13 @@
         <v>1</v>
       </c>
       <c r="I564" s="1">
-        <v>1504.3113</v>
+        <v>948.95624</v>
       </c>
       <c r="J564" s="1">
-        <v>227.38661</v>
-      </c>
-    </row>
-    <row r="565" ht="17.4" spans="1:10">
+        <v>363.11295</v>
+      </c>
+    </row>
+    <row r="565" ht="16.5" spans="1:10">
       <c r="A565" s="1" t="s">
         <v>14</v>
       </c>
@@ -19075,7 +19084,7 @@
         <v>1</v>
       </c>
       <c r="F565" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G565" s="1">
         <v>5</v>
@@ -19084,13 +19093,13 @@
         <v>1</v>
       </c>
       <c r="I565" s="1">
-        <v>279.98782</v>
+        <v>787.84973</v>
       </c>
       <c r="J565" s="1">
-        <v>236.32458</v>
-      </c>
-    </row>
-    <row r="566" ht="17.4" spans="1:10">
+        <v>326.9953</v>
+      </c>
+    </row>
+    <row r="566" ht="16.5" spans="1:10">
       <c r="A566" s="1" t="s">
         <v>14</v>
       </c>
@@ -19107,7 +19116,7 @@
         <v>2</v>
       </c>
       <c r="F566" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G566" s="1">
         <v>5</v>
@@ -19116,13 +19125,13 @@
         <v>1</v>
       </c>
       <c r="I566" s="1">
-        <v>991.61615</v>
+        <v>1962.7494</v>
       </c>
       <c r="J566" s="1">
-        <v>418.60095</v>
-      </c>
-    </row>
-    <row r="567" ht="17.4" spans="1:10">
+        <v>358.37814</v>
+      </c>
+    </row>
+    <row r="567" ht="16.5" spans="1:10">
       <c r="A567" s="1" t="s">
         <v>14</v>
       </c>
@@ -19139,7 +19148,7 @@
         <v>3</v>
       </c>
       <c r="F567" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G567" s="1">
         <v>5</v>
@@ -19148,13 +19157,13 @@
         <v>1</v>
       </c>
       <c r="I567" s="1">
-        <v>948.95624</v>
+        <v>2034.9364</v>
       </c>
       <c r="J567" s="1">
-        <v>363.11295</v>
-      </c>
-    </row>
-    <row r="568" ht="17.4" spans="1:10">
+        <v>457.08115</v>
+      </c>
+    </row>
+    <row r="568" ht="16.5" spans="1:10">
       <c r="A568" s="1" t="s">
         <v>14</v>
       </c>
@@ -19171,7 +19180,7 @@
         <v>1</v>
       </c>
       <c r="F568" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G568" s="1">
         <v>5</v>
@@ -19180,13 +19189,13 @@
         <v>1</v>
       </c>
       <c r="I568" s="1">
-        <v>787.84973</v>
+        <v>1020.99286</v>
       </c>
       <c r="J568" s="1">
-        <v>326.9953</v>
-      </c>
-    </row>
-    <row r="569" ht="17.4" spans="1:10">
+        <v>409.13657</v>
+      </c>
+    </row>
+    <row r="569" ht="16.5" spans="1:10">
       <c r="A569" s="1" t="s">
         <v>14</v>
       </c>
@@ -19203,7 +19212,7 @@
         <v>2</v>
       </c>
       <c r="F569" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G569" s="1">
         <v>5</v>
@@ -19212,13 +19221,13 @@
         <v>1</v>
       </c>
       <c r="I569" s="1">
-        <v>1962.7494</v>
+        <v>2089.556</v>
       </c>
       <c r="J569" s="1">
-        <v>358.37814</v>
-      </c>
-    </row>
-    <row r="570" ht="17.4" spans="1:10">
+        <v>432.93082</v>
+      </c>
+    </row>
+    <row r="570" ht="16.5" spans="1:10">
       <c r="A570" s="1" t="s">
         <v>14</v>
       </c>
@@ -19235,7 +19244,7 @@
         <v>3</v>
       </c>
       <c r="F570" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G570" s="1">
         <v>5</v>
@@ -19244,13 +19253,13 @@
         <v>1</v>
       </c>
       <c r="I570" s="1">
-        <v>2034.9364</v>
+        <v>1760.655</v>
       </c>
       <c r="J570" s="1">
-        <v>457.08115</v>
-      </c>
-    </row>
-    <row r="571" ht="17.4" spans="1:10">
+        <v>533.779</v>
+      </c>
+    </row>
+    <row r="571" ht="16.5" spans="1:10">
       <c r="A571" s="1" t="s">
         <v>14</v>
       </c>
@@ -19267,7 +19276,7 @@
         <v>1</v>
       </c>
       <c r="F571" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G571" s="1">
         <v>5</v>
@@ -19276,13 +19285,13 @@
         <v>1</v>
       </c>
       <c r="I571" s="1">
-        <v>1020.99286</v>
+        <v>432.55032</v>
       </c>
       <c r="J571" s="1">
-        <v>409.13657</v>
-      </c>
-    </row>
-    <row r="572" ht="17.4" spans="1:10">
+        <v>353.392</v>
+      </c>
+    </row>
+    <row r="572" ht="16.5" spans="1:10">
       <c r="A572" s="1" t="s">
         <v>14</v>
       </c>
@@ -19299,7 +19308,7 @@
         <v>2</v>
       </c>
       <c r="F572" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G572" s="1">
         <v>5</v>
@@ -19308,13 +19317,13 @@
         <v>1</v>
       </c>
       <c r="I572" s="1">
-        <v>2089.556</v>
+        <v>1262.3875</v>
       </c>
       <c r="J572" s="1">
-        <v>432.93082</v>
-      </c>
-    </row>
-    <row r="573" ht="17.4" spans="1:10">
+        <v>330.15854</v>
+      </c>
+    </row>
+    <row r="573" ht="16.5" spans="1:10">
       <c r="A573" s="1" t="s">
         <v>14</v>
       </c>
@@ -19331,7 +19340,7 @@
         <v>3</v>
       </c>
       <c r="F573" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G573" s="1">
         <v>5</v>
@@ -19340,13 +19349,13 @@
         <v>1</v>
       </c>
       <c r="I573" s="1">
-        <v>1760.655</v>
+        <v>963.3951</v>
       </c>
       <c r="J573" s="1">
-        <v>533.779</v>
-      </c>
-    </row>
-    <row r="574" ht="17.4" spans="1:10">
+        <v>513.52625</v>
+      </c>
+    </row>
+    <row r="574" ht="16.5" spans="1:10">
       <c r="A574" s="1" t="s">
         <v>14</v>
       </c>
@@ -19363,7 +19372,7 @@
         <v>1</v>
       </c>
       <c r="F574" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G574" s="1">
         <v>5</v>
@@ -19372,13 +19381,13 @@
         <v>1</v>
       </c>
       <c r="I574" s="1">
-        <v>432.55032</v>
+        <v>505.96353</v>
       </c>
       <c r="J574" s="1">
-        <v>353.392</v>
-      </c>
-    </row>
-    <row r="575" ht="17.4" spans="1:10">
+        <v>350.08487</v>
+      </c>
+    </row>
+    <row r="575" ht="16.5" spans="1:10">
       <c r="A575" s="1" t="s">
         <v>14</v>
       </c>
@@ -19395,7 +19404,7 @@
         <v>2</v>
       </c>
       <c r="F575" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G575" s="1">
         <v>5</v>
@@ -19404,13 +19413,13 @@
         <v>1</v>
       </c>
       <c r="I575" s="1">
-        <v>1262.3875</v>
+        <v>1679.7498</v>
       </c>
       <c r="J575" s="1">
-        <v>330.15854</v>
-      </c>
-    </row>
-    <row r="576" ht="17.4" spans="1:10">
+        <v>329.0146</v>
+      </c>
+    </row>
+    <row r="576" ht="16.5" spans="1:10">
       <c r="A576" s="1" t="s">
         <v>14</v>
       </c>
@@ -19427,7 +19436,7 @@
         <v>3</v>
       </c>
       <c r="F576" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G576" s="1">
         <v>5</v>
@@ -19436,13 +19445,13 @@
         <v>1</v>
       </c>
       <c r="I576" s="1">
-        <v>963.3951</v>
+        <v>1274.4806</v>
       </c>
       <c r="J576" s="1">
-        <v>513.52625</v>
-      </c>
-    </row>
-    <row r="577" ht="17.4" spans="1:10">
+        <v>285.35416</v>
+      </c>
+    </row>
+    <row r="577" ht="16.5" spans="1:10">
       <c r="A577" s="1" t="s">
         <v>14</v>
       </c>
@@ -19459,7 +19468,7 @@
         <v>1</v>
       </c>
       <c r="F577" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G577" s="1">
         <v>5</v>
@@ -19468,13 +19477,13 @@
         <v>1</v>
       </c>
       <c r="I577" s="1">
-        <v>505.96353</v>
+        <v>850.05023</v>
       </c>
       <c r="J577" s="1">
-        <v>350.08487</v>
-      </c>
-    </row>
-    <row r="578" ht="17.4" spans="1:10">
+        <v>332.74124</v>
+      </c>
+    </row>
+    <row r="578" ht="16.5" spans="1:10">
       <c r="A578" s="1" t="s">
         <v>14</v>
       </c>
@@ -19491,7 +19500,7 @@
         <v>2</v>
       </c>
       <c r="F578" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G578" s="1">
         <v>5</v>
@@ -19500,13 +19509,13 @@
         <v>1</v>
       </c>
       <c r="I578" s="1">
-        <v>1679.7498</v>
+        <v>1130.86</v>
       </c>
       <c r="J578" s="1">
-        <v>329.0146</v>
-      </c>
-    </row>
-    <row r="579" ht="17.4" spans="1:10">
+        <v>549.25275</v>
+      </c>
+    </row>
+    <row r="579" ht="16.5" spans="1:10">
       <c r="A579" s="1" t="s">
         <v>14</v>
       </c>
@@ -19523,7 +19532,7 @@
         <v>3</v>
       </c>
       <c r="F579" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G579" s="1">
         <v>5</v>
@@ -19532,109 +19541,109 @@
         <v>1</v>
       </c>
       <c r="I579" s="1">
-        <v>1274.4806</v>
+        <v>964.23004</v>
       </c>
       <c r="J579" s="1">
-        <v>285.35416</v>
-      </c>
-    </row>
-    <row r="580" ht="17.4" spans="1:10">
+        <v>443.17685</v>
+      </c>
+    </row>
+    <row r="580" ht="16.5" spans="1:10">
       <c r="A580" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E580" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F580" s="1">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="G580" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H580" s="1">
         <v>1</v>
       </c>
       <c r="I580" s="1">
-        <v>850.05023</v>
+        <v>0</v>
       </c>
       <c r="J580" s="1">
-        <v>332.74124</v>
-      </c>
-    </row>
-    <row r="581" ht="17.4" spans="1:10">
+        <v>43.140095</v>
+      </c>
+    </row>
+    <row r="581" ht="16.5" spans="1:10">
       <c r="A581" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E581" s="1">
         <v>2</v>
       </c>
       <c r="F581" s="1">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="G581" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H581" s="1">
         <v>1</v>
       </c>
       <c r="I581" s="1">
-        <v>1130.86</v>
+        <v>360.44656</v>
       </c>
       <c r="J581" s="1">
-        <v>549.25275</v>
-      </c>
-    </row>
-    <row r="582" ht="17.4" spans="1:10">
+        <v>175.4735</v>
+      </c>
+    </row>
+    <row r="582" ht="16.5" spans="1:10">
       <c r="A582" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E582" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F582" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="G582" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H582" s="1">
         <v>1</v>
       </c>
       <c r="I582" s="1">
-        <v>964.23004</v>
+        <v>505.0351</v>
       </c>
       <c r="J582" s="1">
-        <v>443.17685</v>
-      </c>
-    </row>
-    <row r="583" ht="17.4" spans="1:10">
+        <v>383.7905</v>
+      </c>
+    </row>
+    <row r="583" ht="16.5" spans="1:10">
       <c r="A583" s="1" t="s">
         <v>10</v>
       </c>
@@ -19651,7 +19660,7 @@
         <v>2</v>
       </c>
       <c r="F583" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G583" s="1">
         <v>15</v>
@@ -19660,13 +19669,13 @@
         <v>1</v>
       </c>
       <c r="I583" s="1">
-        <v>0</v>
+        <v>765.0354</v>
       </c>
       <c r="J583" s="1">
-        <v>43.140095</v>
-      </c>
-    </row>
-    <row r="584" ht="17.4" spans="1:10">
+        <v>1278.6654</v>
+      </c>
+    </row>
+    <row r="584" ht="16.5" spans="1:10">
       <c r="A584" s="1" t="s">
         <v>10</v>
       </c>
@@ -19680,10 +19689,10 @@
         <v>26</v>
       </c>
       <c r="E584" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F584" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G584" s="1">
         <v>15</v>
@@ -19692,13 +19701,13 @@
         <v>1</v>
       </c>
       <c r="I584" s="1">
-        <v>360.44656</v>
+        <v>2.6364655</v>
       </c>
       <c r="J584" s="1">
-        <v>175.4735</v>
-      </c>
-    </row>
-    <row r="585" ht="17.4" spans="1:10">
+        <v>61.596035</v>
+      </c>
+    </row>
+    <row r="585" ht="16.5" spans="1:10">
       <c r="A585" s="1" t="s">
         <v>10</v>
       </c>
@@ -19712,10 +19721,10 @@
         <v>26</v>
       </c>
       <c r="E585" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F585" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G585" s="1">
         <v>15</v>
@@ -19724,13 +19733,13 @@
         <v>1</v>
       </c>
       <c r="I585" s="1">
-        <v>505.0351</v>
+        <v>1182.4537</v>
       </c>
       <c r="J585" s="1">
-        <v>383.7905</v>
-      </c>
-    </row>
-    <row r="586" ht="17.4" spans="1:10">
+        <v>328.18698</v>
+      </c>
+    </row>
+    <row r="586" ht="16.5" spans="1:10">
       <c r="A586" s="1" t="s">
         <v>10</v>
       </c>
@@ -19762,7 +19771,7 @@
         <v>1278.6654</v>
       </c>
     </row>
-    <row r="587" ht="17.4" spans="1:10">
+    <row r="587" ht="16.5" spans="1:10">
       <c r="A587" s="1" t="s">
         <v>10</v>
       </c>
@@ -19776,7 +19785,7 @@
         <v>26</v>
       </c>
       <c r="E587" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F587" s="1">
         <v>700</v>
@@ -19788,13 +19797,13 @@
         <v>1</v>
       </c>
       <c r="I587" s="1">
-        <v>2.6364655</v>
+        <v>877.22784</v>
       </c>
       <c r="J587" s="1">
-        <v>61.596035</v>
-      </c>
-    </row>
-    <row r="588" ht="17.4" spans="1:10">
+        <v>822.1488</v>
+      </c>
+    </row>
+    <row r="588" ht="16.5" spans="1:10">
       <c r="A588" s="1" t="s">
         <v>10</v>
       </c>
@@ -19808,7 +19817,7 @@
         <v>26</v>
       </c>
       <c r="E588" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F588" s="1">
         <v>700</v>
@@ -19820,13 +19829,13 @@
         <v>1</v>
       </c>
       <c r="I588" s="1">
-        <v>1182.4537</v>
+        <v>154.40857</v>
       </c>
       <c r="J588" s="1">
-        <v>328.18698</v>
-      </c>
-    </row>
-    <row r="589" ht="17.4" spans="1:10">
+        <v>340.41666</v>
+      </c>
+    </row>
+    <row r="589" ht="16.5" spans="1:10">
       <c r="A589" s="1" t="s">
         <v>10</v>
       </c>
@@ -19843,7 +19852,7 @@
         <v>2</v>
       </c>
       <c r="F589" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G589" s="1">
         <v>15</v>
@@ -19852,13 +19861,13 @@
         <v>1</v>
       </c>
       <c r="I589" s="1">
-        <v>765.0354</v>
+        <v>2.477736</v>
       </c>
       <c r="J589" s="1">
-        <v>1278.6654</v>
-      </c>
-    </row>
-    <row r="590" ht="17.4" spans="1:10">
+        <v>35.69514</v>
+      </c>
+    </row>
+    <row r="590" ht="16.5" spans="1:10">
       <c r="A590" s="1" t="s">
         <v>10</v>
       </c>
@@ -19872,10 +19881,10 @@
         <v>26</v>
       </c>
       <c r="E590" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F590" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G590" s="1">
         <v>15</v>
@@ -19884,13 +19893,13 @@
         <v>1</v>
       </c>
       <c r="I590" s="1">
-        <v>877.22784</v>
+        <v>86.82203</v>
       </c>
       <c r="J590" s="1">
-        <v>822.1488</v>
-      </c>
-    </row>
-    <row r="591" ht="17.4" spans="1:10">
+        <v>132.89764</v>
+      </c>
+    </row>
+    <row r="591" ht="16.5" spans="1:10">
       <c r="A591" s="1" t="s">
         <v>10</v>
       </c>
@@ -19904,10 +19913,10 @@
         <v>26</v>
       </c>
       <c r="E591" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F591" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G591" s="1">
         <v>15</v>
@@ -19916,13 +19925,13 @@
         <v>1</v>
       </c>
       <c r="I591" s="1">
-        <v>154.40857</v>
+        <v>219.15327</v>
       </c>
       <c r="J591" s="1">
-        <v>340.41666</v>
-      </c>
-    </row>
-    <row r="592" ht="17.4" spans="1:10">
+        <v>389.96494</v>
+      </c>
+    </row>
+    <row r="592" ht="16.5" spans="1:10">
       <c r="A592" s="1" t="s">
         <v>10</v>
       </c>
@@ -19939,7 +19948,7 @@
         <v>2</v>
       </c>
       <c r="F592" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G592" s="1">
         <v>15</v>
@@ -19948,13 +19957,13 @@
         <v>1</v>
       </c>
       <c r="I592" s="1">
-        <v>2.477736</v>
+        <v>655.9047</v>
       </c>
       <c r="J592" s="1">
-        <v>35.69514</v>
-      </c>
-    </row>
-    <row r="593" ht="17.4" spans="1:10">
+        <v>348.1653</v>
+      </c>
+    </row>
+    <row r="593" ht="16.5" spans="1:10">
       <c r="A593" s="1" t="s">
         <v>10</v>
       </c>
@@ -19971,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="F593" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G593" s="1">
         <v>15</v>
@@ -19980,13 +19989,13 @@
         <v>1</v>
       </c>
       <c r="I593" s="1">
-        <v>86.82203</v>
+        <v>1289.9697</v>
       </c>
       <c r="J593" s="1">
-        <v>132.89764</v>
-      </c>
-    </row>
-    <row r="594" ht="17.4" spans="1:10">
+        <v>283.37604</v>
+      </c>
+    </row>
+    <row r="594" ht="16.5" spans="1:10">
       <c r="A594" s="1" t="s">
         <v>10</v>
       </c>
@@ -20003,7 +20012,7 @@
         <v>2</v>
       </c>
       <c r="F594" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G594" s="1">
         <v>15</v>
@@ -20012,13 +20021,13 @@
         <v>1</v>
       </c>
       <c r="I594" s="1">
-        <v>219.15327</v>
+        <v>264.21585</v>
       </c>
       <c r="J594" s="1">
-        <v>389.96494</v>
-      </c>
-    </row>
-    <row r="595" ht="17.4" spans="1:10">
+        <v>520.97144</v>
+      </c>
+    </row>
+    <row r="595" ht="16.5" spans="1:10">
       <c r="A595" s="1" t="s">
         <v>10</v>
       </c>
@@ -20032,10 +20041,10 @@
         <v>26</v>
       </c>
       <c r="E595" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F595" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G595" s="1">
         <v>15</v>
@@ -20044,13 +20053,13 @@
         <v>1</v>
       </c>
       <c r="I595" s="1">
-        <v>655.9047</v>
+        <v>849.9498</v>
       </c>
       <c r="J595" s="1">
-        <v>348.1653</v>
-      </c>
-    </row>
-    <row r="596" ht="17.4" spans="1:10">
+        <v>430.48615</v>
+      </c>
+    </row>
+    <row r="596" ht="16.5" spans="1:10">
       <c r="A596" s="1" t="s">
         <v>10</v>
       </c>
@@ -20064,7 +20073,7 @@
         <v>26</v>
       </c>
       <c r="E596" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F596" s="1">
         <v>700</v>
@@ -20076,13 +20085,13 @@
         <v>1</v>
       </c>
       <c r="I596" s="1">
-        <v>1289.9697</v>
+        <v>580.19806</v>
       </c>
       <c r="J596" s="1">
-        <v>283.37604</v>
-      </c>
-    </row>
-    <row r="597" ht="17.4" spans="1:10">
+        <v>1096.7914</v>
+      </c>
+    </row>
+    <row r="597" ht="16.5" spans="1:10">
       <c r="A597" s="1" t="s">
         <v>10</v>
       </c>
@@ -20099,7 +20108,7 @@
         <v>2</v>
       </c>
       <c r="F597" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G597" s="1">
         <v>15</v>
@@ -20108,13 +20117,13 @@
         <v>1</v>
       </c>
       <c r="I597" s="1">
-        <v>264.21585</v>
+        <v>1289.9697</v>
       </c>
       <c r="J597" s="1">
-        <v>520.97144</v>
-      </c>
-    </row>
-    <row r="598" ht="17.4" spans="1:10">
+        <v>283.37604</v>
+      </c>
+    </row>
+    <row r="598" ht="16.5" spans="1:10">
       <c r="A598" s="1" t="s">
         <v>10</v>
       </c>
@@ -20128,7 +20137,7 @@
         <v>26</v>
       </c>
       <c r="E598" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F598" s="1">
         <v>700</v>
@@ -20140,13 +20149,13 @@
         <v>1</v>
       </c>
       <c r="I598" s="1">
-        <v>849.9498</v>
+        <v>1399.6102</v>
       </c>
       <c r="J598" s="1">
-        <v>430.48615</v>
-      </c>
-    </row>
-    <row r="599" ht="17.4" spans="1:10">
+        <v>361.7988</v>
+      </c>
+    </row>
+    <row r="599" ht="16.5" spans="1:10">
       <c r="A599" s="1" t="s">
         <v>10</v>
       </c>
@@ -20160,7 +20169,7 @@
         <v>26</v>
       </c>
       <c r="E599" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F599" s="1">
         <v>700</v>
@@ -20172,15 +20181,15 @@
         <v>1</v>
       </c>
       <c r="I599" s="1">
-        <v>580.19806</v>
+        <v>1783.1827</v>
       </c>
       <c r="J599" s="1">
-        <v>1096.7914</v>
-      </c>
-    </row>
-    <row r="600" ht="17.4" spans="1:10">
+        <v>993.6432</v>
+      </c>
+    </row>
+    <row r="600" ht="16.5" spans="1:10">
       <c r="A600" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>20</v>
@@ -20192,25 +20201,25 @@
         <v>26</v>
       </c>
       <c r="E600" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F600" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G600" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H600" s="1">
         <v>1</v>
       </c>
       <c r="I600" s="1">
-        <v>1289.9697</v>
+        <v>400.2497</v>
       </c>
       <c r="J600" s="1">
-        <v>283.37604</v>
-      </c>
-    </row>
-    <row r="601" ht="17.4" spans="1:10">
+        <v>1325.202</v>
+      </c>
+    </row>
+    <row r="601" ht="16.5" spans="1:10">
       <c r="A601" s="1" t="s">
         <v>10</v>
       </c>
@@ -20218,31 +20227,31 @@
         <v>20</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E601" s="1">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F601" s="1">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G601" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H601" s="1">
         <v>1</v>
       </c>
       <c r="I601" s="1">
-        <v>1399.6102</v>
+        <v>248.1662</v>
       </c>
       <c r="J601" s="1">
-        <v>361.7988</v>
-      </c>
-    </row>
-    <row r="602" ht="17.4" spans="1:10">
+        <v>358.9956</v>
+      </c>
+    </row>
+    <row r="602" ht="16.5" spans="1:10">
       <c r="A602" s="1" t="s">
         <v>10</v>
       </c>
@@ -20250,63 +20259,63 @@
         <v>20</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E602" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F602" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G602" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H602" s="1">
         <v>1</v>
       </c>
       <c r="I602" s="1">
-        <v>1783.1827</v>
+        <v>181.91225</v>
       </c>
       <c r="J602" s="1">
-        <v>993.6432</v>
-      </c>
-    </row>
-    <row r="603" ht="17.4" spans="1:10">
+        <v>380.6382</v>
+      </c>
+    </row>
+    <row r="603" ht="16.5" spans="1:10">
       <c r="A603" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E603" s="1">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F603" s="1">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="G603" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H603" s="1">
         <v>1</v>
       </c>
       <c r="I603" s="1">
-        <v>400.2497</v>
+        <v>794.1474</v>
       </c>
       <c r="J603" s="1">
-        <v>1325.202</v>
-      </c>
-    </row>
-    <row r="604" ht="17.4" spans="1:10">
+        <v>608.20807</v>
+      </c>
+    </row>
+    <row r="604" ht="16.5" spans="1:10">
       <c r="A604" s="1" t="s">
         <v>10</v>
       </c>
@@ -20323,7 +20332,7 @@
         <v>3.5</v>
       </c>
       <c r="F604" s="1">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="G604" s="1">
         <v>10</v>
@@ -20332,13 +20341,13 @@
         <v>1</v>
       </c>
       <c r="I604" s="1">
-        <v>248.1662</v>
+        <v>888.6265</v>
       </c>
       <c r="J604" s="1">
-        <v>358.9956</v>
-      </c>
-    </row>
-    <row r="605" ht="17.4" spans="1:10">
+        <v>631.2894</v>
+      </c>
+    </row>
+    <row r="605" ht="16.5" spans="1:10">
       <c r="A605" s="1" t="s">
         <v>10</v>
       </c>
@@ -20352,25 +20361,25 @@
         <v>28</v>
       </c>
       <c r="E605" s="1">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F605" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G605" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H605" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I605" s="1">
-        <v>181.91225</v>
+        <v>75.5275</v>
       </c>
       <c r="J605" s="1">
-        <v>380.6382</v>
-      </c>
-    </row>
-    <row r="606" ht="17.4" spans="1:10">
+        <v>240.57689</v>
+      </c>
+    </row>
+    <row r="606" ht="16.5" spans="1:10">
       <c r="A606" s="1" t="s">
         <v>10</v>
       </c>
@@ -20384,25 +20393,25 @@
         <v>28</v>
       </c>
       <c r="E606" s="1">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="F606" s="1">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="G606" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H606" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I606" s="1">
-        <v>794.1474</v>
+        <v>159.15367</v>
       </c>
       <c r="J606" s="1">
-        <v>608.20807</v>
-      </c>
-    </row>
-    <row r="607" ht="17.4" spans="1:10">
+        <v>410.40988</v>
+      </c>
+    </row>
+    <row r="607" ht="16.5" spans="1:10">
       <c r="A607" s="1" t="s">
         <v>10</v>
       </c>
@@ -20416,25 +20425,25 @@
         <v>28</v>
       </c>
       <c r="E607" s="1">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F607" s="1">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="G607" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H607" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I607" s="1">
-        <v>888.6265</v>
+        <v>48.443718</v>
       </c>
       <c r="J607" s="1">
-        <v>631.2894</v>
-      </c>
-    </row>
-    <row r="608" ht="17.4" spans="1:10">
+        <v>641.54407</v>
+      </c>
+    </row>
+    <row r="608" ht="16.5" spans="1:10">
       <c r="A608" s="1" t="s">
         <v>10</v>
       </c>
@@ -20448,7 +20457,7 @@
         <v>28</v>
       </c>
       <c r="E608" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F608" s="1">
         <v>800</v>
@@ -20460,13 +20469,13 @@
         <v>0.5</v>
       </c>
       <c r="I608" s="1">
-        <v>75.5275</v>
+        <v>22.33347</v>
       </c>
       <c r="J608" s="1">
-        <v>240.57689</v>
-      </c>
-    </row>
-    <row r="609" ht="17.4" spans="1:10">
+        <v>549.29614</v>
+      </c>
+    </row>
+    <row r="609" ht="16.5" spans="1:10">
       <c r="A609" s="1" t="s">
         <v>10</v>
       </c>
@@ -20480,7 +20489,7 @@
         <v>28</v>
       </c>
       <c r="E609" s="1">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F609" s="1">
         <v>800</v>
@@ -20492,13 +20501,13 @@
         <v>0.5</v>
       </c>
       <c r="I609" s="1">
-        <v>159.15367</v>
+        <v>89.60823</v>
       </c>
       <c r="J609" s="1">
-        <v>410.40988</v>
-      </c>
-    </row>
-    <row r="610" ht="17.4" spans="1:10">
+        <v>413.20084</v>
+      </c>
+    </row>
+    <row r="610" ht="16.5" spans="1:10">
       <c r="A610" s="1" t="s">
         <v>10</v>
       </c>
@@ -20512,25 +20521,25 @@
         <v>28</v>
       </c>
       <c r="E610" s="1">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="F610" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G610" s="1">
         <v>5</v>
       </c>
       <c r="H610" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I610" s="1">
-        <v>48.443718</v>
+        <v>945.2182</v>
       </c>
       <c r="J610" s="1">
-        <v>641.54407</v>
-      </c>
-    </row>
-    <row r="611" ht="17.4" spans="1:10">
+        <v>734.0025</v>
+      </c>
+    </row>
+    <row r="611" ht="16.5" spans="1:10">
       <c r="A611" s="1" t="s">
         <v>10</v>
       </c>
@@ -20544,25 +20553,25 @@
         <v>28</v>
       </c>
       <c r="E611" s="1">
-        <v>2</v>
+        <v>0.89</v>
       </c>
       <c r="F611" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G611" s="1">
         <v>5</v>
       </c>
       <c r="H611" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I611" s="1">
-        <v>22.33347</v>
+        <v>648.98663</v>
       </c>
       <c r="J611" s="1">
-        <v>549.29614</v>
-      </c>
-    </row>
-    <row r="612" ht="17.4" spans="1:10">
+        <v>718.8236</v>
+      </c>
+    </row>
+    <row r="612" ht="16.5" spans="1:10">
       <c r="A612" s="1" t="s">
         <v>10</v>
       </c>
@@ -20576,25 +20585,25 @@
         <v>28</v>
       </c>
       <c r="E612" s="1">
-        <v>3</v>
+        <v>0.89</v>
       </c>
       <c r="F612" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G612" s="1">
         <v>5</v>
       </c>
       <c r="H612" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I612" s="1">
-        <v>89.60823</v>
+        <v>582.40375</v>
       </c>
       <c r="J612" s="1">
-        <v>413.20084</v>
-      </c>
-    </row>
-    <row r="613" ht="17.4" spans="1:10">
+        <v>665.91254</v>
+      </c>
+    </row>
+    <row r="613" ht="16.5" spans="1:10">
       <c r="A613" s="1" t="s">
         <v>10</v>
       </c>
@@ -20611,7 +20620,7 @@
         <v>0.89</v>
       </c>
       <c r="F613" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G613" s="1">
         <v>5</v>
@@ -20620,13 +20629,13 @@
         <v>1</v>
       </c>
       <c r="I613" s="1">
-        <v>945.2182</v>
+        <v>571.60864</v>
       </c>
       <c r="J613" s="1">
-        <v>734.0025</v>
-      </c>
-    </row>
-    <row r="614" ht="17.4" spans="1:10">
+        <v>570.9837</v>
+      </c>
+    </row>
+    <row r="614" ht="16.5" spans="1:10">
       <c r="A614" s="1" t="s">
         <v>10</v>
       </c>
@@ -20643,7 +20652,7 @@
         <v>0.89</v>
       </c>
       <c r="F614" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G614" s="1">
         <v>5</v>
@@ -20652,13 +20661,13 @@
         <v>1</v>
       </c>
       <c r="I614" s="1">
-        <v>648.98663</v>
+        <v>575.9382</v>
       </c>
       <c r="J614" s="1">
-        <v>718.8236</v>
-      </c>
-    </row>
-    <row r="615" ht="17.4" spans="1:10">
+        <v>545.9508</v>
+      </c>
+    </row>
+    <row r="615" ht="16.5" spans="1:10">
       <c r="A615" s="1" t="s">
         <v>10</v>
       </c>
@@ -20675,7 +20684,7 @@
         <v>0.89</v>
       </c>
       <c r="F615" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G615" s="1">
         <v>5</v>
@@ -20684,13 +20693,13 @@
         <v>1</v>
       </c>
       <c r="I615" s="1">
-        <v>582.40375</v>
+        <v>505.74155</v>
       </c>
       <c r="J615" s="1">
-        <v>665.91254</v>
-      </c>
-    </row>
-    <row r="616" ht="17.4" spans="1:10">
+        <v>641.0084</v>
+      </c>
+    </row>
+    <row r="616" ht="16.5" spans="1:10">
       <c r="A616" s="1" t="s">
         <v>10</v>
       </c>
@@ -20707,7 +20716,7 @@
         <v>0.89</v>
       </c>
       <c r="F616" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G616" s="1">
         <v>5</v>
@@ -20716,13 +20725,13 @@
         <v>1</v>
       </c>
       <c r="I616" s="1">
-        <v>571.60864</v>
+        <v>504.93744</v>
       </c>
       <c r="J616" s="1">
-        <v>570.9837</v>
-      </c>
-    </row>
-    <row r="617" ht="17.4" spans="1:10">
+        <v>729.1943</v>
+      </c>
+    </row>
+    <row r="617" ht="16.5" spans="1:10">
       <c r="A617" s="1" t="s">
         <v>10</v>
       </c>
@@ -20736,10 +20745,10 @@
         <v>28</v>
       </c>
       <c r="E617" s="1">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="F617" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G617" s="1">
         <v>5</v>
@@ -20748,13 +20757,13 @@
         <v>1</v>
       </c>
       <c r="I617" s="1">
-        <v>575.9382</v>
+        <v>1932.5057</v>
       </c>
       <c r="J617" s="1">
-        <v>545.9508</v>
-      </c>
-    </row>
-    <row r="618" ht="17.4" spans="1:10">
+        <v>374.83115</v>
+      </c>
+    </row>
+    <row r="618" ht="16.5" spans="1:10">
       <c r="A618" s="1" t="s">
         <v>10</v>
       </c>
@@ -20768,10 +20777,10 @@
         <v>28</v>
       </c>
       <c r="E618" s="1">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="F618" s="1">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G618" s="1">
         <v>5</v>
@@ -20780,13 +20789,13 @@
         <v>1</v>
       </c>
       <c r="I618" s="1">
-        <v>505.74155</v>
+        <v>2013.4147</v>
       </c>
       <c r="J618" s="1">
-        <v>641.0084</v>
-      </c>
-    </row>
-    <row r="619" ht="17.4" spans="1:10">
+        <v>508.02374</v>
+      </c>
+    </row>
+    <row r="619" ht="16.5" spans="1:10">
       <c r="A619" s="1" t="s">
         <v>10</v>
       </c>
@@ -20800,10 +20809,10 @@
         <v>28</v>
       </c>
       <c r="E619" s="1">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="F619" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G619" s="1">
         <v>5</v>
@@ -20812,13 +20821,13 @@
         <v>1</v>
       </c>
       <c r="I619" s="1">
-        <v>504.93744</v>
+        <v>1728.1045</v>
       </c>
       <c r="J619" s="1">
-        <v>729.1943</v>
-      </c>
-    </row>
-    <row r="620" ht="17.4" spans="1:10">
+        <v>390.017</v>
+      </c>
+    </row>
+    <row r="620" ht="16.5" spans="1:10">
       <c r="A620" s="1" t="s">
         <v>10</v>
       </c>
@@ -20832,10 +20841,10 @@
         <v>28</v>
       </c>
       <c r="E620" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F620" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G620" s="1">
         <v>5</v>
@@ -20844,13 +20853,13 @@
         <v>1</v>
       </c>
       <c r="I620" s="1">
-        <v>1932.5057</v>
+        <v>1422.8463</v>
       </c>
       <c r="J620" s="1">
-        <v>374.83115</v>
-      </c>
-    </row>
-    <row r="621" ht="17.4" spans="1:10">
+        <v>211.66296</v>
+      </c>
+    </row>
+    <row r="621" ht="16.5" spans="1:10">
       <c r="A621" s="1" t="s">
         <v>10</v>
       </c>
@@ -20864,7 +20873,7 @@
         <v>28</v>
       </c>
       <c r="E621" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F621" s="1">
         <v>700</v>
@@ -20876,13 +20885,13 @@
         <v>1</v>
       </c>
       <c r="I621" s="1">
-        <v>2013.4147</v>
+        <v>1643.0226</v>
       </c>
       <c r="J621" s="1">
-        <v>508.02374</v>
-      </c>
-    </row>
-    <row r="622" ht="17.4" spans="1:10">
+        <v>249.25584</v>
+      </c>
+    </row>
+    <row r="622" ht="16.5" spans="1:10">
       <c r="A622" s="1" t="s">
         <v>10</v>
       </c>
@@ -20896,10 +20905,10 @@
         <v>28</v>
       </c>
       <c r="E622" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F622" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G622" s="1">
         <v>5</v>
@@ -20908,13 +20917,13 @@
         <v>1</v>
       </c>
       <c r="I622" s="1">
-        <v>1728.1045</v>
+        <v>1318.5566</v>
       </c>
       <c r="J622" s="1">
-        <v>390.017</v>
-      </c>
-    </row>
-    <row r="623" ht="17.4" spans="1:10">
+        <v>374.72748</v>
+      </c>
+    </row>
+    <row r="623" ht="16.5" spans="1:10">
       <c r="A623" s="1" t="s">
         <v>10</v>
       </c>
@@ -20928,25 +20937,25 @@
         <v>28</v>
       </c>
       <c r="E623" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F623" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G623" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H623" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I623" s="1">
-        <v>1422.8463</v>
+        <v>524.8359</v>
       </c>
       <c r="J623" s="1">
-        <v>211.66296</v>
-      </c>
-    </row>
-    <row r="624" ht="17.4" spans="1:10">
+        <v>810.3368</v>
+      </c>
+    </row>
+    <row r="624" ht="16.5" spans="1:10">
       <c r="A624" s="1" t="s">
         <v>10</v>
       </c>
@@ -20960,25 +20969,25 @@
         <v>28</v>
       </c>
       <c r="E624" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F624" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G624" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H624" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I624" s="1">
-        <v>1643.0226</v>
+        <v>962.20984</v>
       </c>
       <c r="J624" s="1">
-        <v>249.25584</v>
-      </c>
-    </row>
-    <row r="625" ht="17.4" spans="1:10">
+        <v>1022.5658</v>
+      </c>
+    </row>
+    <row r="625" ht="16.5" spans="1:10">
       <c r="A625" s="1" t="s">
         <v>10</v>
       </c>
@@ -20995,22 +21004,22 @@
         <v>2</v>
       </c>
       <c r="F625" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G625" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H625" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I625" s="1">
-        <v>1318.5566</v>
+        <v>1218.2974</v>
       </c>
       <c r="J625" s="1">
-        <v>374.72748</v>
-      </c>
-    </row>
-    <row r="626" ht="17.4" spans="1:10">
+        <v>1186.5936</v>
+      </c>
+    </row>
+    <row r="626" ht="16.5" spans="1:10">
       <c r="A626" s="1" t="s">
         <v>10</v>
       </c>
@@ -21024,7 +21033,7 @@
         <v>28</v>
       </c>
       <c r="E626" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F626" s="1">
         <v>400</v>
@@ -21036,13 +21045,13 @@
         <v>3</v>
       </c>
       <c r="I626" s="1">
-        <v>524.8359</v>
+        <v>1668.5072</v>
       </c>
       <c r="J626" s="1">
-        <v>810.3368</v>
-      </c>
-    </row>
-    <row r="627" ht="17.4" spans="1:10">
+        <v>1420.5972</v>
+      </c>
+    </row>
+    <row r="627" ht="16.5" spans="1:10">
       <c r="A627" s="1" t="s">
         <v>10</v>
       </c>
@@ -21056,7 +21065,7 @@
         <v>28</v>
       </c>
       <c r="E627" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F627" s="1">
         <v>400</v>
@@ -21068,13 +21077,13 @@
         <v>3</v>
       </c>
       <c r="I627" s="1">
-        <v>962.20984</v>
+        <v>1437.1472</v>
       </c>
       <c r="J627" s="1">
-        <v>1022.5658</v>
-      </c>
-    </row>
-    <row r="628" ht="17.4" spans="1:10">
+        <v>1300.6613</v>
+      </c>
+    </row>
+    <row r="628" ht="16.5" spans="1:10">
       <c r="A628" s="1" t="s">
         <v>10</v>
       </c>
@@ -21088,10 +21097,10 @@
         <v>28</v>
       </c>
       <c r="E628" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F628" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G628" s="1">
         <v>10</v>
@@ -21100,13 +21109,13 @@
         <v>3</v>
       </c>
       <c r="I628" s="1">
-        <v>1218.2974</v>
+        <v>366.45135</v>
       </c>
       <c r="J628" s="1">
-        <v>1186.5936</v>
-      </c>
-    </row>
-    <row r="629" ht="17.4" spans="1:10">
+        <v>655.9492</v>
+      </c>
+    </row>
+    <row r="629" ht="16.5" spans="1:10">
       <c r="A629" s="1" t="s">
         <v>10</v>
       </c>
@@ -21123,7 +21132,7 @@
         <v>2.5</v>
       </c>
       <c r="F629" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G629" s="1">
         <v>10</v>
@@ -21132,13 +21141,13 @@
         <v>3</v>
       </c>
       <c r="I629" s="1">
-        <v>1668.5072</v>
+        <v>953.2013</v>
       </c>
       <c r="J629" s="1">
-        <v>1420.5972</v>
-      </c>
-    </row>
-    <row r="630" ht="17.4" spans="1:10">
+        <v>858.8434</v>
+      </c>
+    </row>
+    <row r="630" ht="16.5" spans="1:10">
       <c r="A630" s="1" t="s">
         <v>10</v>
       </c>
@@ -21152,10 +21161,10 @@
         <v>28</v>
       </c>
       <c r="E630" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F630" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G630" s="1">
         <v>10</v>
@@ -21164,13 +21173,13 @@
         <v>3</v>
       </c>
       <c r="I630" s="1">
-        <v>1437.1472</v>
+        <v>1911.57</v>
       </c>
       <c r="J630" s="1">
-        <v>1300.6613</v>
-      </c>
-    </row>
-    <row r="631" ht="17.4" spans="1:10">
+        <v>1122.6368</v>
+      </c>
+    </row>
+    <row r="631" ht="16.5" spans="1:10">
       <c r="A631" s="1" t="s">
         <v>10</v>
       </c>
@@ -21184,25 +21193,25 @@
         <v>28</v>
       </c>
       <c r="E631" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F631" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G631" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H631" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I631" s="1">
-        <v>366.45135</v>
+        <v>68.065186</v>
       </c>
       <c r="J631" s="1">
-        <v>655.9492</v>
-      </c>
-    </row>
-    <row r="632" ht="17.4" spans="1:10">
+        <v>235.24559</v>
+      </c>
+    </row>
+    <row r="632" ht="16.5" spans="1:10">
       <c r="A632" s="1" t="s">
         <v>10</v>
       </c>
@@ -21216,25 +21225,25 @@
         <v>28</v>
       </c>
       <c r="E632" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F632" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G632" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H632" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I632" s="1">
-        <v>953.2013</v>
+        <v>616.7646</v>
       </c>
       <c r="J632" s="1">
-        <v>858.8434</v>
-      </c>
-    </row>
-    <row r="633" ht="17.4" spans="1:10">
+        <v>391.53592</v>
+      </c>
+    </row>
+    <row r="633" ht="16.5" spans="1:10">
       <c r="A633" s="1" t="s">
         <v>10</v>
       </c>
@@ -21248,25 +21257,25 @@
         <v>28</v>
       </c>
       <c r="E633" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F633" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G633" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H633" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I633" s="1">
-        <v>1911.57</v>
+        <v>706.4688</v>
       </c>
       <c r="J633" s="1">
-        <v>1122.6368</v>
-      </c>
-    </row>
-    <row r="634" ht="17.4" spans="1:10">
+        <v>418.0751</v>
+      </c>
+    </row>
+    <row r="634" ht="16.5" spans="1:10">
       <c r="A634" s="1" t="s">
         <v>10</v>
       </c>
@@ -21280,10 +21289,10 @@
         <v>28</v>
       </c>
       <c r="E634" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F634" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G634" s="1">
         <v>5</v>
@@ -21292,13 +21301,13 @@
         <v>1</v>
       </c>
       <c r="I634" s="1">
-        <v>68.065186</v>
+        <v>642.81067</v>
       </c>
       <c r="J634" s="1">
-        <v>235.24559</v>
-      </c>
-    </row>
-    <row r="635" ht="17.4" spans="1:10">
+        <v>349.06992</v>
+      </c>
+    </row>
+    <row r="635" ht="16.5" spans="1:10">
       <c r="A635" s="1" t="s">
         <v>10</v>
       </c>
@@ -21312,10 +21321,10 @@
         <v>28</v>
       </c>
       <c r="E635" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F635" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G635" s="1">
         <v>5</v>
@@ -21324,13 +21333,13 @@
         <v>1</v>
       </c>
       <c r="I635" s="1">
-        <v>616.7646</v>
+        <v>324.28616</v>
       </c>
       <c r="J635" s="1">
-        <v>391.53592</v>
-      </c>
-    </row>
-    <row r="636" ht="17.4" spans="1:10">
+        <v>381.4346</v>
+      </c>
+    </row>
+    <row r="636" ht="16.5" spans="1:10">
       <c r="A636" s="1" t="s">
         <v>10</v>
       </c>
@@ -21347,22 +21356,22 @@
         <v>3</v>
       </c>
       <c r="F636" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G636" s="1">
         <v>5</v>
       </c>
       <c r="H636" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I636" s="1">
-        <v>706.4688</v>
+        <v>375.57443</v>
       </c>
       <c r="J636" s="1">
-        <v>418.0751</v>
-      </c>
-    </row>
-    <row r="637" ht="17.4" spans="1:10">
+        <v>521.2784</v>
+      </c>
+    </row>
+    <row r="637" ht="16.5" spans="1:10">
       <c r="A637" s="1" t="s">
         <v>10</v>
       </c>
@@ -21376,25 +21385,25 @@
         <v>28</v>
       </c>
       <c r="E637" s="1">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="F637" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G637" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H637" s="1">
         <v>1</v>
       </c>
       <c r="I637" s="1">
-        <v>642.81067</v>
+        <v>378.22372</v>
       </c>
       <c r="J637" s="1">
-        <v>349.06992</v>
-      </c>
-    </row>
-    <row r="638" ht="17.4" spans="1:10">
+        <v>197.22581</v>
+      </c>
+    </row>
+    <row r="638" ht="16.5" spans="1:10">
       <c r="A638" s="1" t="s">
         <v>10</v>
       </c>
@@ -21408,25 +21417,25 @@
         <v>28</v>
       </c>
       <c r="E638" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F638" s="1">
         <v>600</v>
       </c>
       <c r="G638" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H638" s="1">
         <v>1</v>
       </c>
       <c r="I638" s="1">
-        <v>324.28616</v>
+        <v>593.9119</v>
       </c>
       <c r="J638" s="1">
-        <v>381.4346</v>
-      </c>
-    </row>
-    <row r="639" ht="17.4" spans="1:10">
+        <v>122.774284</v>
+      </c>
+    </row>
+    <row r="639" ht="16.5" spans="1:10">
       <c r="A639" s="1" t="s">
         <v>10</v>
       </c>
@@ -21440,25 +21449,25 @@
         <v>28</v>
       </c>
       <c r="E639" s="1">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="F639" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G639" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H639" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I639" s="1">
-        <v>375.57443</v>
+        <v>648.60706</v>
       </c>
       <c r="J639" s="1">
-        <v>521.2784</v>
-      </c>
-    </row>
-    <row r="640" ht="17.4" spans="1:10">
+        <v>220.59682</v>
+      </c>
+    </row>
+    <row r="640" ht="16.5" spans="1:10">
       <c r="A640" s="1" t="s">
         <v>10</v>
       </c>
@@ -21472,7 +21481,7 @@
         <v>28</v>
       </c>
       <c r="E640" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F640" s="1">
         <v>600</v>
@@ -21484,13 +21493,13 @@
         <v>1</v>
       </c>
       <c r="I640" s="1">
-        <v>378.22372</v>
+        <v>712.2397</v>
       </c>
       <c r="J640" s="1">
-        <v>197.22581</v>
-      </c>
-    </row>
-    <row r="641" ht="17.4" spans="1:10">
+        <v>393.99503</v>
+      </c>
+    </row>
+    <row r="641" ht="16.5" spans="1:10">
       <c r="A641" s="1" t="s">
         <v>10</v>
       </c>
@@ -21504,25 +21513,25 @@
         <v>28</v>
       </c>
       <c r="E641" s="1">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F641" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G641" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H641" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I641" s="1">
-        <v>593.9119</v>
+        <v>586.53284</v>
       </c>
       <c r="J641" s="1">
-        <v>122.774284</v>
-      </c>
-    </row>
-    <row r="642" ht="17.4" spans="1:10">
+        <v>254.71675</v>
+      </c>
+    </row>
+    <row r="642" ht="16.5" spans="1:10">
       <c r="A642" s="1" t="s">
         <v>10</v>
       </c>
@@ -21536,25 +21545,25 @@
         <v>28</v>
       </c>
       <c r="E642" s="1">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F642" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G642" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H642" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I642" s="1">
-        <v>648.60706</v>
+        <v>994.43036</v>
       </c>
       <c r="J642" s="1">
-        <v>220.59682</v>
-      </c>
-    </row>
-    <row r="643" ht="17.4" spans="1:10">
+        <v>389.82562</v>
+      </c>
+    </row>
+    <row r="643" ht="16.5" spans="1:10">
       <c r="A643" s="1" t="s">
         <v>10</v>
       </c>
@@ -21568,25 +21577,25 @@
         <v>28</v>
       </c>
       <c r="E643" s="1">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F643" s="1">
         <v>600</v>
       </c>
       <c r="G643" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H643" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I643" s="1">
-        <v>712.2397</v>
+        <v>963.1374</v>
       </c>
       <c r="J643" s="1">
-        <v>393.99503</v>
-      </c>
-    </row>
-    <row r="644" ht="17.4" spans="1:10">
+        <v>308.07474</v>
+      </c>
+    </row>
+    <row r="644" ht="16.5" spans="1:10">
       <c r="A644" s="1" t="s">
         <v>10</v>
       </c>
@@ -21603,7 +21612,7 @@
         <v>0.88</v>
       </c>
       <c r="F644" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G644" s="1">
         <v>5</v>
@@ -21612,13 +21621,13 @@
         <v>2</v>
       </c>
       <c r="I644" s="1">
-        <v>586.53284</v>
+        <v>880.69366</v>
       </c>
       <c r="J644" s="1">
-        <v>254.71675</v>
-      </c>
-    </row>
-    <row r="645" ht="17.4" spans="1:10">
+        <v>297.8076</v>
+      </c>
+    </row>
+    <row r="645" ht="16.5" spans="1:10">
       <c r="A645" s="1" t="s">
         <v>10</v>
       </c>
@@ -21635,7 +21644,7 @@
         <v>0.88</v>
       </c>
       <c r="F645" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G645" s="1">
         <v>5</v>
@@ -21644,13 +21653,13 @@
         <v>2</v>
       </c>
       <c r="I645" s="1">
-        <v>994.43036</v>
+        <v>946.6319</v>
       </c>
       <c r="J645" s="1">
-        <v>389.82562</v>
-      </c>
-    </row>
-    <row r="646" ht="17.4" spans="1:10">
+        <v>284.8021</v>
+      </c>
+    </row>
+    <row r="646" ht="16.5" spans="1:10">
       <c r="A646" s="1" t="s">
         <v>10</v>
       </c>
@@ -21667,22 +21676,22 @@
         <v>0.88</v>
       </c>
       <c r="F646" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G646" s="1">
         <v>5</v>
       </c>
       <c r="H646" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I646" s="1">
-        <v>963.1374</v>
+        <v>991.717</v>
       </c>
       <c r="J646" s="1">
-        <v>308.07474</v>
-      </c>
-    </row>
-    <row r="647" ht="17.4" spans="1:10">
+        <v>346.8681</v>
+      </c>
+    </row>
+    <row r="647" ht="16.5" spans="1:10">
       <c r="A647" s="1" t="s">
         <v>10</v>
       </c>
@@ -21699,22 +21708,22 @@
         <v>0.88</v>
       </c>
       <c r="F647" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G647" s="1">
         <v>5</v>
       </c>
       <c r="H647" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I647" s="1">
-        <v>880.69366</v>
+        <v>1002.1347</v>
       </c>
       <c r="J647" s="1">
-        <v>297.8076</v>
-      </c>
-    </row>
-    <row r="648" ht="17.4" spans="1:10">
+        <v>361.1168</v>
+      </c>
+    </row>
+    <row r="648" ht="16.5" spans="1:10">
       <c r="A648" s="1" t="s">
         <v>10</v>
       </c>
@@ -21731,22 +21740,22 @@
         <v>0.88</v>
       </c>
       <c r="F648" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G648" s="1">
         <v>5</v>
       </c>
       <c r="H648" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I648" s="1">
-        <v>946.6319</v>
+        <v>987.9735</v>
       </c>
       <c r="J648" s="1">
-        <v>284.8021</v>
-      </c>
-    </row>
-    <row r="649" ht="17.4" spans="1:10">
+        <v>346.66653</v>
+      </c>
+    </row>
+    <row r="649" ht="16.5" spans="1:10">
       <c r="A649" s="1" t="s">
         <v>10</v>
       </c>
@@ -21769,16 +21778,16 @@
         <v>5</v>
       </c>
       <c r="H649" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I649" s="1">
-        <v>991.717</v>
+        <v>356.3985</v>
       </c>
       <c r="J649" s="1">
-        <v>346.8681</v>
-      </c>
-    </row>
-    <row r="650" ht="17.4" spans="1:10">
+        <v>296.2426</v>
+      </c>
+    </row>
+    <row r="650" ht="16.5" spans="1:10">
       <c r="A650" s="1" t="s">
         <v>10</v>
       </c>
@@ -21792,25 +21801,25 @@
         <v>28</v>
       </c>
       <c r="E650" s="1">
-        <v>0.88</v>
+        <v>0.3</v>
       </c>
       <c r="F650" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G650" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H650" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I650" s="1">
-        <v>1002.1347</v>
+        <v>149.69055</v>
       </c>
       <c r="J650" s="1">
-        <v>361.1168</v>
-      </c>
-    </row>
-    <row r="651" ht="17.4" spans="1:10">
+        <v>328.78458</v>
+      </c>
+    </row>
+    <row r="651" ht="16.5" spans="1:10">
       <c r="A651" s="1" t="s">
         <v>10</v>
       </c>
@@ -21824,25 +21833,25 @@
         <v>28</v>
       </c>
       <c r="E651" s="1">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="F651" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G651" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H651" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I651" s="1">
-        <v>987.9735</v>
+        <v>152.47865</v>
       </c>
       <c r="J651" s="1">
-        <v>346.66653</v>
-      </c>
-    </row>
-    <row r="652" ht="17.4" spans="1:10">
+        <v>486.0059</v>
+      </c>
+    </row>
+    <row r="652" ht="16.5" spans="1:10">
       <c r="A652" s="1" t="s">
         <v>10</v>
       </c>
@@ -21856,25 +21865,25 @@
         <v>28</v>
       </c>
       <c r="E652" s="1">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
       <c r="F652" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G652" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H652" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I652" s="1">
-        <v>356.3985</v>
+        <v>58.91972</v>
       </c>
       <c r="J652" s="1">
-        <v>296.2426</v>
-      </c>
-    </row>
-    <row r="653" ht="17.4" spans="1:10">
+        <v>577.86993</v>
+      </c>
+    </row>
+    <row r="653" ht="16.5" spans="1:10">
       <c r="A653" s="1" t="s">
         <v>10</v>
       </c>
@@ -21888,7 +21897,7 @@
         <v>28</v>
       </c>
       <c r="E653" s="1">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="F653" s="1">
         <v>450</v>
@@ -21900,13 +21909,13 @@
         <v>1</v>
       </c>
       <c r="I653" s="1">
-        <v>149.69055</v>
+        <v>112.7646</v>
       </c>
       <c r="J653" s="1">
-        <v>328.78458</v>
-      </c>
-    </row>
-    <row r="654" ht="17.4" spans="1:10">
+        <v>793.56555</v>
+      </c>
+    </row>
+    <row r="654" ht="16.5" spans="1:10">
       <c r="A654" s="1" t="s">
         <v>10</v>
       </c>
@@ -21920,25 +21929,25 @@
         <v>28</v>
       </c>
       <c r="E654" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F654" s="1">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="G654" s="1">
         <v>10</v>
       </c>
       <c r="H654" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I654" s="1">
-        <v>152.47865</v>
+        <v>1105.3904</v>
       </c>
       <c r="J654" s="1">
-        <v>486.0059</v>
-      </c>
-    </row>
-    <row r="655" ht="17.4" spans="1:10">
+        <v>385.77585</v>
+      </c>
+    </row>
+    <row r="655" ht="16.5" spans="1:10">
       <c r="A655" s="1" t="s">
         <v>10</v>
       </c>
@@ -21949,28 +21958,28 @@
         <v>27</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E655" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F655" s="1">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="G655" s="1">
         <v>10</v>
       </c>
       <c r="H655" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I655" s="1">
-        <v>58.91972</v>
+        <v>124.33675</v>
       </c>
       <c r="J655" s="1">
-        <v>577.86993</v>
-      </c>
-    </row>
-    <row r="656" ht="17.4" spans="1:10">
+        <v>303.4407</v>
+      </c>
+    </row>
+    <row r="656" ht="16.5" spans="1:10">
       <c r="A656" s="1" t="s">
         <v>10</v>
       </c>
@@ -21981,13 +21990,13 @@
         <v>27</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E656" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F656" s="1">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="G656" s="1">
         <v>10</v>
@@ -21996,15 +22005,15 @@
         <v>1</v>
       </c>
       <c r="I656" s="1">
-        <v>112.7646</v>
+        <v>507.59723</v>
       </c>
       <c r="J656" s="1">
-        <v>793.56555</v>
-      </c>
-    </row>
-    <row r="657" ht="17.4" spans="1:10">
+        <v>885.70776</v>
+      </c>
+    </row>
+    <row r="657" ht="16.5" spans="1:10">
       <c r="A657" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>20</v>
@@ -22013,30 +22022,30 @@
         <v>27</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E657" s="1">
         <v>1</v>
       </c>
       <c r="F657" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G657" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H657" s="1">
         <v>2</v>
       </c>
       <c r="I657" s="1">
-        <v>1105.3904</v>
+        <v>247.97714</v>
       </c>
       <c r="J657" s="1">
-        <v>385.77585</v>
-      </c>
-    </row>
-    <row r="658" ht="17.4" spans="1:10">
+        <v>155.36281</v>
+      </c>
+    </row>
+    <row r="658" ht="16.5" spans="1:10">
       <c r="A658" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>20</v>
@@ -22051,24 +22060,24 @@
         <v>1</v>
       </c>
       <c r="F658" s="1">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="G658" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H658" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I658" s="1">
-        <v>124.33675</v>
+        <v>214.14055</v>
       </c>
       <c r="J658" s="1">
-        <v>303.4407</v>
-      </c>
-    </row>
-    <row r="659" ht="17.4" spans="1:10">
+        <v>131.98145</v>
+      </c>
+    </row>
+    <row r="659" ht="16.5" spans="1:10">
       <c r="A659" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>20</v>
@@ -22080,25 +22089,25 @@
         <v>29</v>
       </c>
       <c r="E659" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F659" s="1">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="G659" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H659" s="1">
         <v>1</v>
       </c>
       <c r="I659" s="1">
-        <v>507.59723</v>
+        <v>58.282417</v>
       </c>
       <c r="J659" s="1">
-        <v>885.70776</v>
-      </c>
-    </row>
-    <row r="660" ht="17.4" spans="1:10">
+        <v>153.42949</v>
+      </c>
+    </row>
+    <row r="660" ht="16.5" spans="1:10">
       <c r="A660" s="1" t="s">
         <v>14</v>
       </c>
@@ -22112,7 +22121,7 @@
         <v>29</v>
       </c>
       <c r="E660" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F660" s="1">
         <v>900</v>
@@ -22124,13 +22133,13 @@
         <v>2</v>
       </c>
       <c r="I660" s="1">
-        <v>247.97714</v>
+        <v>59.76226</v>
       </c>
       <c r="J660" s="1">
-        <v>155.36281</v>
-      </c>
-    </row>
-    <row r="661" ht="17.4" spans="1:10">
+        <v>172.89156</v>
+      </c>
+    </row>
+    <row r="661" ht="16.5" spans="1:10">
       <c r="A661" s="1" t="s">
         <v>14</v>
       </c>
@@ -22144,7 +22153,7 @@
         <v>29</v>
       </c>
       <c r="E661" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F661" s="1">
         <v>900</v>
@@ -22156,13 +22165,13 @@
         <v>3</v>
       </c>
       <c r="I661" s="1">
-        <v>214.14055</v>
+        <v>122.4787</v>
       </c>
       <c r="J661" s="1">
-        <v>131.98145</v>
-      </c>
-    </row>
-    <row r="662" ht="17.4" spans="1:10">
+        <v>192.02596</v>
+      </c>
+    </row>
+    <row r="662" ht="16.5" spans="1:10">
       <c r="A662" s="1" t="s">
         <v>14</v>
       </c>
@@ -22185,16 +22194,16 @@
         <v>5</v>
       </c>
       <c r="H662" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I662" s="1">
-        <v>58.282417</v>
+        <v>110.87774</v>
       </c>
       <c r="J662" s="1">
-        <v>153.42949</v>
-      </c>
-    </row>
-    <row r="663" ht="17.4" spans="1:10">
+        <v>280.846</v>
+      </c>
+    </row>
+    <row r="663" ht="16.5" spans="1:10">
       <c r="A663" s="1" t="s">
         <v>14</v>
       </c>
@@ -22208,7 +22217,7 @@
         <v>29</v>
       </c>
       <c r="E663" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F663" s="1">
         <v>900</v>
@@ -22220,13 +22229,13 @@
         <v>2</v>
       </c>
       <c r="I663" s="1">
-        <v>59.76226</v>
+        <v>60.193947</v>
       </c>
       <c r="J663" s="1">
-        <v>172.89156</v>
-      </c>
-    </row>
-    <row r="664" ht="17.4" spans="1:10">
+        <v>183.83383</v>
+      </c>
+    </row>
+    <row r="664" ht="16.5" spans="1:10">
       <c r="A664" s="1" t="s">
         <v>14</v>
       </c>
@@ -22237,10 +22246,10 @@
         <v>27</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E664" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F664" s="1">
         <v>900</v>
@@ -22249,16 +22258,16 @@
         <v>5</v>
       </c>
       <c r="H664" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I664" s="1">
-        <v>122.4787</v>
+        <v>43.474983</v>
       </c>
       <c r="J664" s="1">
-        <v>192.02596</v>
-      </c>
-    </row>
-    <row r="665" ht="17.4" spans="1:10">
+        <v>117.693565</v>
+      </c>
+    </row>
+    <row r="665" ht="16.5" spans="1:10">
       <c r="A665" s="1" t="s">
         <v>14</v>
       </c>
@@ -22269,10 +22278,10 @@
         <v>27</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E665" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F665" s="1">
         <v>900</v>
@@ -22281,16 +22290,16 @@
         <v>5</v>
       </c>
       <c r="H665" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I665" s="1">
-        <v>110.87774</v>
+        <v>71.73643</v>
       </c>
       <c r="J665" s="1">
-        <v>280.846</v>
-      </c>
-    </row>
-    <row r="666" ht="17.4" spans="1:10">
+        <v>144.38503</v>
+      </c>
+    </row>
+    <row r="666" ht="16.5" spans="1:10">
       <c r="A666" s="1" t="s">
         <v>14</v>
       </c>
@@ -22301,10 +22310,10 @@
         <v>27</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E666" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F666" s="1">
         <v>900</v>
@@ -22313,16 +22322,16 @@
         <v>5</v>
       </c>
       <c r="H666" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I666" s="1">
-        <v>60.193947</v>
+        <v>117.09477</v>
       </c>
       <c r="J666" s="1">
-        <v>183.83383</v>
-      </c>
-    </row>
-    <row r="667" ht="17.4" spans="1:10">
+        <v>126.796616</v>
+      </c>
+    </row>
+    <row r="667" ht="16.5" spans="1:10">
       <c r="A667" s="1" t="s">
         <v>14</v>
       </c>
@@ -22345,16 +22354,16 @@
         <v>5</v>
       </c>
       <c r="H667" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I667" s="1">
-        <v>43.474983</v>
+        <v>136.91354</v>
       </c>
       <c r="J667" s="1">
-        <v>117.693565</v>
-      </c>
-    </row>
-    <row r="668" ht="17.4" spans="1:10">
+        <v>203.5482</v>
+      </c>
+    </row>
+    <row r="668" ht="16.5" spans="1:10">
       <c r="A668" s="1" t="s">
         <v>14</v>
       </c>
@@ -22368,7 +22377,7 @@
         <v>30</v>
       </c>
       <c r="E668" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F668" s="1">
         <v>900</v>
@@ -22377,16 +22386,16 @@
         <v>5</v>
       </c>
       <c r="H668" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" s="1">
-        <v>71.73643</v>
+        <v>63.58712</v>
       </c>
       <c r="J668" s="1">
-        <v>144.38503</v>
-      </c>
-    </row>
-    <row r="669" ht="17.4" spans="1:10">
+        <v>138.78807</v>
+      </c>
+    </row>
+    <row r="669" ht="16.5" spans="1:10">
       <c r="A669" s="1" t="s">
         <v>14</v>
       </c>
@@ -22400,7 +22409,7 @@
         <v>30</v>
       </c>
       <c r="E669" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F669" s="1">
         <v>900</v>
@@ -22409,16 +22418,16 @@
         <v>5</v>
       </c>
       <c r="H669" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I669" s="1">
-        <v>117.09477</v>
+        <v>193.33034</v>
       </c>
       <c r="J669" s="1">
-        <v>126.796616</v>
-      </c>
-    </row>
-    <row r="670" ht="17.4" spans="1:10">
+        <v>209.96591</v>
+      </c>
+    </row>
+    <row r="670" ht="16.5" spans="1:10">
       <c r="A670" s="1" t="s">
         <v>14</v>
       </c>
@@ -22432,7 +22441,7 @@
         <v>30</v>
       </c>
       <c r="E670" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F670" s="1">
         <v>900</v>
@@ -22441,16 +22450,16 @@
         <v>5</v>
       </c>
       <c r="H670" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I670" s="1">
-        <v>136.91354</v>
+        <v>94.64517</v>
       </c>
       <c r="J670" s="1">
-        <v>203.5482</v>
-      </c>
-    </row>
-    <row r="671" ht="17.4" spans="1:10">
+        <v>211.23875</v>
+      </c>
+    </row>
+    <row r="671" ht="16.5" spans="1:10">
       <c r="A671" s="1" t="s">
         <v>14</v>
       </c>
@@ -22473,16 +22482,16 @@
         <v>5</v>
       </c>
       <c r="H671" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I671" s="1">
-        <v>63.58712</v>
+        <v>68.98651</v>
       </c>
       <c r="J671" s="1">
-        <v>138.78807</v>
-      </c>
-    </row>
-    <row r="672" ht="17.4" spans="1:10">
+        <v>154.9689</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10">
       <c r="A672" s="1" t="s">
         <v>14</v>
       </c>
@@ -22492,11 +22501,11 @@
       <c r="C672" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D672" s="2" t="s">
-        <v>30</v>
+      <c r="D672" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E672" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F672" s="1">
         <v>900</v>
@@ -22505,16 +22514,16 @@
         <v>5</v>
       </c>
       <c r="H672" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672" s="1">
-        <v>193.33034</v>
+        <v>121.77169</v>
       </c>
       <c r="J672" s="1">
-        <v>209.96591</v>
-      </c>
-    </row>
-    <row r="673" ht="17.4" spans="1:10">
+        <v>118.13222</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10">
       <c r="A673" s="1" t="s">
         <v>14</v>
       </c>
@@ -22524,11 +22533,11 @@
       <c r="C673" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D673" s="2" t="s">
-        <v>30</v>
+      <c r="D673" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E673" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F673" s="1">
         <v>900</v>
@@ -22537,16 +22546,16 @@
         <v>5</v>
       </c>
       <c r="H673" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I673" s="1">
-        <v>94.64517</v>
+        <v>197.42834</v>
       </c>
       <c r="J673" s="1">
-        <v>211.23875</v>
-      </c>
-    </row>
-    <row r="674" ht="17.4" spans="1:10">
+        <v>114.32266</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10">
       <c r="A674" s="1" t="s">
         <v>14</v>
       </c>
@@ -22556,11 +22565,11 @@
       <c r="C674" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D674" s="2" t="s">
-        <v>30</v>
+      <c r="D674" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E674" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F674" s="1">
         <v>900</v>
@@ -22569,13 +22578,13 @@
         <v>5</v>
       </c>
       <c r="H674" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I674" s="1">
-        <v>68.98651</v>
+        <v>155.72777</v>
       </c>
       <c r="J674" s="1">
-        <v>154.9689</v>
+        <v>166.70886</v>
       </c>
     </row>
     <row r="675" spans="1:10">
@@ -22601,13 +22610,13 @@
         <v>5</v>
       </c>
       <c r="H675" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I675" s="1">
-        <v>121.77169</v>
+        <v>136.67284</v>
       </c>
       <c r="J675" s="1">
-        <v>118.13222</v>
+        <v>185.70702</v>
       </c>
     </row>
     <row r="676" spans="1:10">
@@ -22624,7 +22633,7 @@
         <v>31</v>
       </c>
       <c r="E676" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F676" s="1">
         <v>900</v>
@@ -22633,13 +22642,13 @@
         <v>5</v>
       </c>
       <c r="H676" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" s="1">
-        <v>197.42834</v>
+        <v>146.0529</v>
       </c>
       <c r="J676" s="1">
-        <v>114.32266</v>
+        <v>204.4764</v>
       </c>
     </row>
     <row r="677" spans="1:10">
@@ -22656,7 +22665,7 @@
         <v>31</v>
       </c>
       <c r="E677" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F677" s="1">
         <v>900</v>
@@ -22665,13 +22674,13 @@
         <v>5</v>
       </c>
       <c r="H677" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677" s="1">
-        <v>155.72777</v>
+        <v>213.28157</v>
       </c>
       <c r="J677" s="1">
-        <v>166.70886</v>
+        <v>133.84587</v>
       </c>
     </row>
     <row r="678" spans="1:10">
@@ -22688,7 +22697,7 @@
         <v>31</v>
       </c>
       <c r="E678" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F678" s="1">
         <v>900</v>
@@ -22697,13 +22706,13 @@
         <v>5</v>
       </c>
       <c r="H678" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I678" s="1">
-        <v>136.67284</v>
+        <v>135.78719</v>
       </c>
       <c r="J678" s="1">
-        <v>185.70702</v>
+        <v>155.80132</v>
       </c>
     </row>
     <row r="679" spans="1:10">
@@ -22729,33 +22738,30 @@
         <v>5</v>
       </c>
       <c r="H679" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I679" s="1">
-        <v>146.0529</v>
+        <v>140.3497</v>
       </c>
       <c r="J679" s="1">
-        <v>204.4764</v>
+        <v>192.52274</v>
       </c>
     </row>
     <row r="680" spans="1:10">
       <c r="A680" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E680" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F680" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G680" s="1">
         <v>5</v>
@@ -22764,74 +22770,68 @@
         <v>2</v>
       </c>
       <c r="I680" s="1">
-        <v>213.28157</v>
+        <v>35.435204</v>
       </c>
       <c r="J680" s="1">
-        <v>133.84587</v>
+        <v>142.8381</v>
       </c>
     </row>
     <row r="681" spans="1:10">
       <c r="A681" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E681" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F681" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G681" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H681" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I681" s="1">
-        <v>135.78719</v>
+        <v>236.8512</v>
       </c>
       <c r="J681" s="1">
-        <v>155.80132</v>
+        <v>189.55968</v>
       </c>
     </row>
     <row r="682" spans="1:10">
       <c r="A682" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E682" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F682" s="1">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G682" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H682" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I682" s="1">
-        <v>140.3497</v>
+        <v>39.650276</v>
       </c>
       <c r="J682" s="1">
-        <v>192.52274</v>
+        <v>553.44714</v>
       </c>
     </row>
     <row r="683" spans="1:10">
@@ -22857,10 +22857,10 @@
         <v>2</v>
       </c>
       <c r="I683" s="1">
-        <v>35.435204</v>
+        <v>186.35255</v>
       </c>
       <c r="J683" s="1">
-        <v>142.8381</v>
+        <v>231.48962</v>
       </c>
     </row>
     <row r="684" spans="1:10">
@@ -22877,19 +22877,19 @@
         <v>10</v>
       </c>
       <c r="F684" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G684" s="1">
         <v>10</v>
       </c>
       <c r="H684" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I684" s="1">
-        <v>236.8512</v>
+        <v>24.795061</v>
       </c>
       <c r="J684" s="1">
-        <v>189.55968</v>
+        <v>107.99375</v>
       </c>
     </row>
     <row r="685" spans="1:10">
@@ -22912,13 +22912,13 @@
         <v>10</v>
       </c>
       <c r="H685" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I685" s="1">
-        <v>39.650276</v>
+        <v>100.10522</v>
       </c>
       <c r="J685" s="1">
-        <v>553.44714</v>
+        <v>155.57268</v>
       </c>
     </row>
     <row r="686" spans="1:10">
@@ -22935,19 +22935,19 @@
         <v>10</v>
       </c>
       <c r="F686" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G686" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H686" s="1">
         <v>2</v>
       </c>
       <c r="I686" s="1">
-        <v>186.35255</v>
+        <v>113.39583</v>
       </c>
       <c r="J686" s="1">
-        <v>231.48962</v>
+        <v>173.37949</v>
       </c>
     </row>
     <row r="687" spans="1:10">
@@ -22970,13 +22970,13 @@
         <v>10</v>
       </c>
       <c r="H687" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I687" s="1">
-        <v>24.795061</v>
+        <v>38.38733</v>
       </c>
       <c r="J687" s="1">
-        <v>107.99375</v>
+        <v>157.75647</v>
       </c>
     </row>
     <row r="688" spans="1:10">
@@ -23002,10 +23002,10 @@
         <v>2</v>
       </c>
       <c r="I688" s="1">
-        <v>100.10522</v>
+        <v>102.53898</v>
       </c>
       <c r="J688" s="1">
-        <v>155.57268</v>
+        <v>293.9603</v>
       </c>
     </row>
     <row r="689" spans="1:10">
@@ -23031,10 +23031,10 @@
         <v>2</v>
       </c>
       <c r="I689" s="1">
-        <v>113.39583</v>
+        <v>106.31363</v>
       </c>
       <c r="J689" s="1">
-        <v>173.37949</v>
+        <v>393.21982</v>
       </c>
     </row>
     <row r="690" spans="1:10">
@@ -23060,10 +23060,10 @@
         <v>2</v>
       </c>
       <c r="I690" s="1">
-        <v>38.38733</v>
+        <v>30.004166</v>
       </c>
       <c r="J690" s="1">
-        <v>157.75647</v>
+        <v>126.091965</v>
       </c>
     </row>
     <row r="691" spans="1:10">
@@ -23086,18 +23086,18 @@
         <v>10</v>
       </c>
       <c r="H691" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691" s="1">
-        <v>102.53898</v>
+        <v>64.159874</v>
       </c>
       <c r="J691" s="1">
-        <v>293.9603</v>
+        <v>136.17424</v>
       </c>
     </row>
     <row r="692" spans="1:10">
       <c r="A692" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>10</v>
@@ -23109,24 +23109,24 @@
         <v>10</v>
       </c>
       <c r="F692" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G692" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H692" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" s="1">
-        <v>106.31363</v>
+        <v>38.330444</v>
       </c>
       <c r="J692" s="1">
-        <v>393.21982</v>
+        <v>113.46302</v>
       </c>
     </row>
     <row r="693" spans="1:10">
       <c r="A693" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>10</v>
@@ -23138,24 +23138,24 @@
         <v>10</v>
       </c>
       <c r="F693" s="1">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="G693" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H693" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" s="1">
-        <v>30.004166</v>
+        <v>4.1279435</v>
       </c>
       <c r="J693" s="1">
-        <v>126.091965</v>
+        <v>84.00939</v>
       </c>
     </row>
     <row r="694" spans="1:10">
       <c r="A694" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>10</v>
@@ -23167,19 +23167,19 @@
         <v>10</v>
       </c>
       <c r="F694" s="1">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="G694" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H694" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" s="1">
-        <v>64.159874</v>
+        <v>6.6087937</v>
       </c>
       <c r="J694" s="1">
-        <v>136.17424</v>
+        <v>112.37843</v>
       </c>
     </row>
     <row r="695" spans="1:10">
@@ -23196,19 +23196,19 @@
         <v>10</v>
       </c>
       <c r="F695" s="1">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="G695" s="1">
         <v>5</v>
       </c>
       <c r="H695" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" s="1">
-        <v>38.330444</v>
+        <v>102.375</v>
       </c>
       <c r="J695" s="1">
-        <v>113.46302</v>
+        <v>120.90508</v>
       </c>
     </row>
     <row r="696" spans="1:10">
@@ -23225,19 +23225,19 @@
         <v>10</v>
       </c>
       <c r="F696" s="1">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="G696" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H696" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" s="1">
-        <v>4.1279435</v>
+        <v>378.66327</v>
       </c>
       <c r="J696" s="1">
-        <v>84.00939</v>
+        <v>480.1614</v>
       </c>
     </row>
     <row r="697" spans="1:10">
@@ -23254,19 +23254,19 @@
         <v>10</v>
       </c>
       <c r="F697" s="1">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="G697" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H697" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" s="1">
-        <v>6.6087937</v>
+        <v>351.02393</v>
       </c>
       <c r="J697" s="1">
-        <v>112.37843</v>
+        <v>218.25761</v>
       </c>
     </row>
     <row r="698" spans="1:10">
@@ -23283,19 +23283,19 @@
         <v>10</v>
       </c>
       <c r="F698" s="1">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="G698" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H698" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I698" s="1">
-        <v>102.375</v>
+        <v>326.12607</v>
       </c>
       <c r="J698" s="1">
-        <v>120.90508</v>
+        <v>589.32324</v>
       </c>
     </row>
     <row r="699" spans="1:10">
@@ -23312,19 +23312,19 @@
         <v>10</v>
       </c>
       <c r="F699" s="1">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="G699" s="1">
         <v>3</v>
       </c>
       <c r="H699" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I699" s="1">
-        <v>378.66327</v>
+        <v>928.04803</v>
       </c>
       <c r="J699" s="1">
-        <v>480.1614</v>
+        <v>308.86725</v>
       </c>
     </row>
     <row r="700" spans="1:10">
@@ -23341,19 +23341,19 @@
         <v>10</v>
       </c>
       <c r="F700" s="1">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="G700" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H700" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" s="1">
-        <v>351.02393</v>
+        <v>143.95512</v>
       </c>
       <c r="J700" s="1">
-        <v>218.25761</v>
+        <v>163.92981</v>
       </c>
     </row>
     <row r="701" spans="1:10">
@@ -23370,19 +23370,19 @@
         <v>10</v>
       </c>
       <c r="F701" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G701" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H701" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I701" s="1">
-        <v>326.12607</v>
+        <v>79.62222</v>
       </c>
       <c r="J701" s="1">
-        <v>589.32324</v>
+        <v>184.56168</v>
       </c>
     </row>
     <row r="702" spans="1:10">
@@ -23399,19 +23399,19 @@
         <v>10</v>
       </c>
       <c r="F702" s="1">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="G702" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H702" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I702" s="1">
-        <v>928.04803</v>
+        <v>307.174</v>
       </c>
       <c r="J702" s="1">
-        <v>308.86725</v>
+        <v>160.93697</v>
       </c>
     </row>
     <row r="703" spans="1:10">
@@ -23428,19 +23428,19 @@
         <v>10</v>
       </c>
       <c r="F703" s="1">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="G703" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H703" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I703" s="1">
-        <v>143.95512</v>
+        <v>153.12596</v>
       </c>
       <c r="J703" s="1">
-        <v>163.92981</v>
+        <v>241.2635</v>
       </c>
     </row>
     <row r="704" spans="1:10">
@@ -23457,19 +23457,19 @@
         <v>10</v>
       </c>
       <c r="F704" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G704" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H704" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I704" s="1">
-        <v>79.62222</v>
+        <v>6.5346284</v>
       </c>
       <c r="J704" s="1">
-        <v>184.56168</v>
+        <v>39.841393</v>
       </c>
     </row>
     <row r="705" spans="1:10">
@@ -23486,105 +23486,18 @@
         <v>10</v>
       </c>
       <c r="F705" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G705" s="1">
         <v>5</v>
       </c>
       <c r="H705" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I705" s="1">
-        <v>307.174</v>
+        <v>17.881521</v>
       </c>
       <c r="J705" s="1">
-        <v>160.93697</v>
-      </c>
-    </row>
-    <row r="706" spans="1:10">
-      <c r="A706" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B706" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C706" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D706" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F706" s="1">
-        <v>750</v>
-      </c>
-      <c r="G706" s="1">
-        <v>5</v>
-      </c>
-      <c r="H706" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I706" s="1">
-        <v>153.12596</v>
-      </c>
-      <c r="J706" s="1">
-        <v>241.2635</v>
-      </c>
-    </row>
-    <row r="707" spans="1:10">
-      <c r="A707" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B707" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C707" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D707" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F707" s="1">
-        <v>800</v>
-      </c>
-      <c r="G707" s="1">
-        <v>5</v>
-      </c>
-      <c r="H707" s="1">
-        <v>2</v>
-      </c>
-      <c r="I707" s="1">
-        <v>6.5346284</v>
-      </c>
-      <c r="J707" s="1">
-        <v>39.841393</v>
-      </c>
-    </row>
-    <row r="708" spans="1:10">
-      <c r="A708" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C708" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D708" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F708" s="1">
-        <v>800</v>
-      </c>
-      <c r="G708" s="1">
-        <v>5</v>
-      </c>
-      <c r="H708" s="1">
-        <v>2</v>
-      </c>
-      <c r="I708" s="1">
-        <v>17.881521</v>
-      </c>
-      <c r="J708" s="1">
         <v>83.90293</v>
       </c>
     </row>
